--- a/Данные/Базовые с сайта/Изначальные вездные и выездные тур поездки с 2014.xlsx
+++ b/Данные/Базовые с сайта/Изначальные вездные и выездные тур поездки с 2014.xlsx
@@ -26,14 +26,11 @@
     <sheet name="2.2020" sheetId="34" r:id="rId17"/>
     <sheet name="2.2021" sheetId="35" r:id="rId18"/>
     <sheet name="2.2022" sheetId="39" r:id="rId19"/>
-    <sheet name="3.2022" sheetId="40" r:id="rId20"/>
-    <sheet name="3.2023" sheetId="42" r:id="rId21"/>
   </sheets>
   <definedNames>
     <definedName name="_Tc41" localSheetId="6">#REF!</definedName>
     <definedName name="_Tc41" localSheetId="7">#REF!</definedName>
     <definedName name="_Tc41" localSheetId="8">#REF!</definedName>
-    <definedName name="_Tc41" localSheetId="20">#REF!</definedName>
     <definedName name="_Tc41">#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'1.2016'!$A$4:$D$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'1.2017'!$A$4:$B$4</definedName>
@@ -62,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="176">
   <si>
     <t>Содержание:</t>
   </si>
@@ -613,53 +610,11 @@
     <t>3.</t>
   </si>
   <si>
-    <t>млн.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Январь</t>
-  </si>
-  <si>
-    <t>Январь-февраль</t>
-  </si>
-  <si>
-    <t>Январь-март</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Январь-апрель </t>
-  </si>
-  <si>
     <t>Январь-июнь 2022</t>
-  </si>
-  <si>
-    <t>Январь-август</t>
-  </si>
-  <si>
-    <t>Январь-сентябрь</t>
-  </si>
-  <si>
-    <t>Январь-октябрь</t>
-  </si>
-  <si>
-    <t>Январь-
-май</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Январь-
-июнь </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Январь-
-июль </t>
   </si>
   <si>
     <t>Январь-сентябрь 
 2022</t>
-  </si>
-  <si>
-    <t>Январь-ноябрь</t>
-  </si>
-  <si>
-    <t>Январь-декабрь</t>
   </si>
   <si>
     <t>2023 год</t>
@@ -2287,7 +2242,7 @@
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2598,15 +2553,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="67" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2619,10 +2565,6 @@
     <xf numFmtId="165" fontId="68" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2654,15 +2596,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="22" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="22" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3227,7 +3160,17 @@
     <cellStyle name="표준_T_A8(통계청_검증결과)" xfId="556"/>
     <cellStyle name="標準_法務省担当表（eigo ） " xfId="557"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3921,59 +3864,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="387480" cy="417267"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:duotone>
-            <a:prstClr val="black"/>
-            <a:srgbClr val="FF0000">
-              <a:tint val="45000"/>
-              <a:satMod val="400000"/>
-            </a:srgbClr>
-          </a:duotone>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1476375" y="0"/>
-          <a:ext cx="387480" cy="417267"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
@@ -4015,59 +3905,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2724150" y="0"/>
-          <a:ext cx="387480" cy="417267"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="387480" cy="417267"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:duotone>
-            <a:prstClr val="black"/>
-            <a:srgbClr val="FF0000">
-              <a:tint val="45000"/>
-              <a:satMod val="400000"/>
-            </a:srgbClr>
-          </a:duotone>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1666875" y="0"/>
           <a:ext cx="387480" cy="417267"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4765,20 +4602,20 @@
       <c r="A4" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="131"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
-      <c r="F4" s="131"/>
-      <c r="G4" s="131"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="131"/>
-      <c r="J4" s="131"/>
-      <c r="K4" s="131"/>
-      <c r="L4" s="131"/>
-      <c r="M4" s="131"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="126"/>
+      <c r="M4" s="126"/>
     </row>
     <row r="5" spans="1:13" ht="15.75">
       <c r="A5" s="5"/>
@@ -4814,20 +4651,20 @@
       <c r="A6" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="131" t="s">
+      <c r="B6" s="126" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="131"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="131"/>
-      <c r="F6" s="131"/>
-      <c r="G6" s="131"/>
-      <c r="H6" s="131"/>
-      <c r="I6" s="131"/>
-      <c r="J6" s="131"/>
-      <c r="K6" s="131"/>
-      <c r="L6" s="131"/>
-      <c r="M6" s="131"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="126"/>
+      <c r="M6" s="126"/>
     </row>
     <row r="7" spans="1:13" ht="15.75">
       <c r="A7" s="84"/>
@@ -4877,20 +4714,20 @@
       <c r="A9" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B9" s="131" t="s">
+      <c r="B9" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="131"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="131"/>
-      <c r="K9" s="131"/>
-      <c r="L9" s="131"/>
-      <c r="M9" s="131"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="126"/>
+      <c r="K9" s="126"/>
+      <c r="L9" s="126"/>
+      <c r="M9" s="126"/>
     </row>
     <row r="10" spans="1:13" ht="15.75">
       <c r="A10" s="5"/>
@@ -4898,7 +4735,7 @@
         <v>168</v>
       </c>
       <c r="C10" s="85" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="D10" s="83"/>
       <c r="E10" s="83"/>
@@ -4940,7 +4777,7 @@
     </row>
     <row r="16" spans="1:13" ht="15.75">
       <c r="B16" s="119" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="15.75">
@@ -5002,10 +4839,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="7" customFormat="1" ht="33" customHeight="1">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="129" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="134"/>
+      <c r="B1" s="129"/>
       <c r="F1"/>
       <c r="G1"/>
       <c r="H1"/>
@@ -5021,12 +4858,12 @@
       <c r="R1"/>
     </row>
     <row r="2" spans="1:18" ht="38.25" customHeight="1">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
     </row>
     <row r="3" spans="1:18" ht="15.75">
       <c r="A3" s="86"/>
@@ -5040,10 +4877,10 @@
         <v>166</v>
       </c>
       <c r="C4" s="90" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D4" s="90" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -6032,24 +5869,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="129" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="134"/>
+      <c r="B1" s="129"/>
     </row>
     <row r="2" spans="1:5" ht="39" customHeight="1">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="134" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
       <c r="E2" s="82"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="47"/>
-      <c r="B3" s="133"/>
-      <c r="C3" s="133"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
       <c r="D3" s="49" t="s">
         <v>20</v>
       </c>
@@ -6459,7 +6296,7 @@
     <mergeCell ref="A2:D2"/>
   </mergeCells>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6488,19 +6325,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="129" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="134"/>
+      <c r="B1" s="129"/>
     </row>
     <row r="2" spans="1:5" ht="39" customHeight="1">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="134" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
     </row>
     <row r="3" spans="1:5" ht="15.75">
       <c r="A3" s="8"/>
@@ -7000,12 +6837,12 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7022,7 +6859,7 @@
   <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
@@ -7035,19 +6872,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="129" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="134"/>
+      <c r="B1" s="129"/>
     </row>
     <row r="2" spans="1:5" ht="39" customHeight="1">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="134" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
     </row>
     <row r="3" spans="1:5" ht="15.75">
       <c r="A3" s="51"/>
@@ -8145,7 +7982,7 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8163,7 +8000,7 @@
   <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
@@ -8176,19 +8013,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="33" customHeight="1">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="129" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="134"/>
+      <c r="B1" s="129"/>
     </row>
     <row r="2" spans="1:7" ht="39" customHeight="1">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="134" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
     </row>
     <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="51"/>
@@ -9287,1243 +9124,6 @@
     <row r="70" spans="1:5">
       <c r="B70" s="53"/>
       <c r="C70" s="53"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Содержание!A1" display="          К содержанию"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="63" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E75"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A9" sqref="A9"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="35.5703125" style="50" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" style="72" customWidth="1"/>
-    <col min="3" max="5" width="23.7109375" style="50" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="50"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="33" customHeight="1">
-      <c r="A1" s="134" t="s">
-        <v>152</v>
-      </c>
-      <c r="B1" s="134"/>
-    </row>
-    <row r="2" spans="1:5" ht="39" customHeight="1">
-      <c r="A2" s="140" t="s">
-        <v>116</v>
-      </c>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.75">
-      <c r="A3" s="54"/>
-      <c r="B3" s="55"/>
-      <c r="E3" s="56" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="28.5" customHeight="1">
-      <c r="A4" s="57"/>
-      <c r="B4" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="58" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="58" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="60">
-        <v>7483</v>
-      </c>
-      <c r="C5" s="60">
-        <v>18646</v>
-      </c>
-      <c r="D5" s="60">
-        <v>32910</v>
-      </c>
-      <c r="E5" s="60">
-        <v>41964</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="61" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="62">
-        <v>797</v>
-      </c>
-      <c r="C7" s="62">
-        <v>1751</v>
-      </c>
-      <c r="D7" s="62">
-        <v>3621</v>
-      </c>
-      <c r="E7" s="62">
-        <v>4496</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="64" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="62">
-        <v>64</v>
-      </c>
-      <c r="C8" s="62">
-        <v>124</v>
-      </c>
-      <c r="D8" s="62">
-        <v>184</v>
-      </c>
-      <c r="E8" s="62">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="64" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="62">
-        <v>147</v>
-      </c>
-      <c r="C9" s="62">
-        <v>349</v>
-      </c>
-      <c r="D9" s="62">
-        <v>592</v>
-      </c>
-      <c r="E9" s="62">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="62">
-        <v>79</v>
-      </c>
-      <c r="C10" s="62">
-        <v>198</v>
-      </c>
-      <c r="D10" s="62">
-        <v>327</v>
-      </c>
-      <c r="E10" s="62">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="64" t="s">
-        <v>128</v>
-      </c>
-      <c r="B11" s="62">
-        <v>4</v>
-      </c>
-      <c r="C11" s="62">
-        <v>7</v>
-      </c>
-      <c r="D11" s="62">
-        <v>10</v>
-      </c>
-      <c r="E11" s="62">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="64" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="62">
-        <v>18</v>
-      </c>
-      <c r="C12" s="62">
-        <v>40</v>
-      </c>
-      <c r="D12" s="62">
-        <v>63</v>
-      </c>
-      <c r="E12" s="62">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="62">
-        <v>23</v>
-      </c>
-      <c r="C13" s="62">
-        <v>164</v>
-      </c>
-      <c r="D13" s="62">
-        <v>418</v>
-      </c>
-      <c r="E13" s="62">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="62">
-        <v>35</v>
-      </c>
-      <c r="C14" s="62">
-        <v>80</v>
-      </c>
-      <c r="D14" s="62">
-        <v>123</v>
-      </c>
-      <c r="E14" s="62">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="62">
-        <v>173</v>
-      </c>
-      <c r="C15" s="62">
-        <v>281</v>
-      </c>
-      <c r="D15" s="62">
-        <v>389</v>
-      </c>
-      <c r="E15" s="62">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="62">
-        <v>286</v>
-      </c>
-      <c r="C16" s="62">
-        <v>591</v>
-      </c>
-      <c r="D16" s="62">
-        <v>950</v>
-      </c>
-      <c r="E16" s="62">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="64" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" s="62">
-        <v>6</v>
-      </c>
-      <c r="C17" s="62">
-        <v>12</v>
-      </c>
-      <c r="D17" s="62">
-        <v>18</v>
-      </c>
-      <c r="E17" s="62">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="64" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="62">
-        <v>27</v>
-      </c>
-      <c r="C18" s="62">
-        <v>300</v>
-      </c>
-      <c r="D18" s="62">
-        <v>749</v>
-      </c>
-      <c r="E18" s="62">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="62">
-        <v>163</v>
-      </c>
-      <c r="C19" s="62">
-        <v>483</v>
-      </c>
-      <c r="D19" s="62">
-        <v>979</v>
-      </c>
-      <c r="E19" s="62">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="62">
-        <v>7</v>
-      </c>
-      <c r="C20" s="62">
-        <v>17</v>
-      </c>
-      <c r="D20" s="62">
-        <v>27</v>
-      </c>
-      <c r="E20" s="62">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="64" t="s">
-        <v>118</v>
-      </c>
-      <c r="B21" s="62">
-        <v>55</v>
-      </c>
-      <c r="C21" s="62">
-        <v>105</v>
-      </c>
-      <c r="D21" s="62">
-        <v>152</v>
-      </c>
-      <c r="E21" s="62">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="62">
-        <v>77</v>
-      </c>
-      <c r="C22" s="62">
-        <v>172</v>
-      </c>
-      <c r="D22" s="62">
-        <v>253</v>
-      </c>
-      <c r="E22" s="62">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="62">
-        <v>105</v>
-      </c>
-      <c r="C23" s="62">
-        <v>119</v>
-      </c>
-      <c r="D23" s="62">
-        <v>125</v>
-      </c>
-      <c r="E23" s="62">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="64" t="s">
-        <v>119</v>
-      </c>
-      <c r="B24" s="62">
-        <v>14</v>
-      </c>
-      <c r="C24" s="62">
-        <v>27</v>
-      </c>
-      <c r="D24" s="62">
-        <v>35</v>
-      </c>
-      <c r="E24" s="62">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="62">
-        <v>3</v>
-      </c>
-      <c r="C25" s="62">
-        <v>5</v>
-      </c>
-      <c r="D25" s="62">
-        <v>7</v>
-      </c>
-      <c r="E25" s="62">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="62">
-        <v>134</v>
-      </c>
-      <c r="C26" s="62">
-        <v>406</v>
-      </c>
-      <c r="D26" s="62">
-        <v>808</v>
-      </c>
-      <c r="E26" s="62">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="62">
-        <v>213</v>
-      </c>
-      <c r="C27" s="62">
-        <v>498</v>
-      </c>
-      <c r="D27" s="62">
-        <v>849</v>
-      </c>
-      <c r="E27" s="62">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="62">
-        <v>521</v>
-      </c>
-      <c r="C28" s="62">
-        <v>1287</v>
-      </c>
-      <c r="D28" s="62">
-        <v>2310</v>
-      </c>
-      <c r="E28" s="62">
-        <v>2955</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="64" t="s">
-        <v>120</v>
-      </c>
-      <c r="B29" s="62">
-        <v>45</v>
-      </c>
-      <c r="C29" s="62">
-        <v>66</v>
-      </c>
-      <c r="D29" s="62">
-        <v>85</v>
-      </c>
-      <c r="E29" s="62">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="64" t="s">
-        <v>121</v>
-      </c>
-      <c r="B30" s="62">
-        <v>54</v>
-      </c>
-      <c r="C30" s="62">
-        <v>325</v>
-      </c>
-      <c r="D30" s="62">
-        <v>695</v>
-      </c>
-      <c r="E30" s="62">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" s="62">
-        <v>43</v>
-      </c>
-      <c r="C31" s="62">
-        <v>120</v>
-      </c>
-      <c r="D31" s="62">
-        <v>193</v>
-      </c>
-      <c r="E31" s="62">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="62">
-        <v>413</v>
-      </c>
-      <c r="C32" s="62">
-        <v>908</v>
-      </c>
-      <c r="D32" s="62">
-        <v>1449</v>
-      </c>
-      <c r="E32" s="62">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" s="62">
-        <v>27</v>
-      </c>
-      <c r="C33" s="62">
-        <v>50</v>
-      </c>
-      <c r="D33" s="62">
-        <v>70</v>
-      </c>
-      <c r="E33" s="62">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" s="62">
-        <v>81</v>
-      </c>
-      <c r="C34" s="62">
-        <v>185</v>
-      </c>
-      <c r="D34" s="62">
-        <v>323</v>
-      </c>
-      <c r="E34" s="62">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" s="62">
-        <v>128</v>
-      </c>
-      <c r="C35" s="62">
-        <v>288</v>
-      </c>
-      <c r="D35" s="62">
-        <v>498</v>
-      </c>
-      <c r="E35" s="62">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="64" t="s">
-        <v>122</v>
-      </c>
-      <c r="B36" s="62">
-        <v>12</v>
-      </c>
-      <c r="C36" s="62">
-        <v>19</v>
-      </c>
-      <c r="D36" s="62">
-        <v>27</v>
-      </c>
-      <c r="E36" s="62">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="64" t="s">
-        <v>129</v>
-      </c>
-      <c r="B37" s="65">
-        <v>0.3</v>
-      </c>
-      <c r="C37" s="62">
-        <v>5</v>
-      </c>
-      <c r="D37" s="62">
-        <v>12</v>
-      </c>
-      <c r="E37" s="62">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="64" t="s">
-        <v>123</v>
-      </c>
-      <c r="B38" s="62">
-        <v>2</v>
-      </c>
-      <c r="C38" s="62">
-        <v>5</v>
-      </c>
-      <c r="D38" s="62">
-        <v>11</v>
-      </c>
-      <c r="E38" s="62">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="B39" s="62">
-        <v>21</v>
-      </c>
-      <c r="C39" s="62">
-        <v>46</v>
-      </c>
-      <c r="D39" s="62">
-        <v>85</v>
-      </c>
-      <c r="E39" s="62">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="B40" s="62">
-        <v>50</v>
-      </c>
-      <c r="C40" s="62">
-        <v>106</v>
-      </c>
-      <c r="D40" s="62">
-        <v>166</v>
-      </c>
-      <c r="E40" s="62">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="64" t="s">
-        <v>61</v>
-      </c>
-      <c r="B41" s="62">
-        <v>25</v>
-      </c>
-      <c r="C41" s="62">
-        <v>52</v>
-      </c>
-      <c r="D41" s="62">
-        <v>80</v>
-      </c>
-      <c r="E41" s="62">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="64" t="s">
-        <v>124</v>
-      </c>
-      <c r="B42" s="62">
-        <v>353</v>
-      </c>
-      <c r="C42" s="62">
-        <v>545</v>
-      </c>
-      <c r="D42" s="62">
-        <v>645</v>
-      </c>
-      <c r="E42" s="62">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="B43" s="62">
-        <v>265</v>
-      </c>
-      <c r="C43" s="62">
-        <v>532</v>
-      </c>
-      <c r="D43" s="62">
-        <v>829</v>
-      </c>
-      <c r="E43" s="62">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="64" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" s="62">
-        <v>13</v>
-      </c>
-      <c r="C44" s="62">
-        <v>30</v>
-      </c>
-      <c r="D44" s="62">
-        <v>47</v>
-      </c>
-      <c r="E44" s="62">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="B45" s="62">
-        <v>60</v>
-      </c>
-      <c r="C45" s="62">
-        <v>122</v>
-      </c>
-      <c r="D45" s="62">
-        <v>180</v>
-      </c>
-      <c r="E45" s="62">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="64" t="s">
-        <v>65</v>
-      </c>
-      <c r="B46" s="62">
-        <v>36</v>
-      </c>
-      <c r="C46" s="62">
-        <v>110</v>
-      </c>
-      <c r="D46" s="62">
-        <v>190</v>
-      </c>
-      <c r="E46" s="62">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="B47" s="62">
-        <v>4</v>
-      </c>
-      <c r="C47" s="62">
-        <v>7</v>
-      </c>
-      <c r="D47" s="62">
-        <v>12</v>
-      </c>
-      <c r="E47" s="62">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="64" t="s">
-        <v>67</v>
-      </c>
-      <c r="B48" s="62">
-        <v>11</v>
-      </c>
-      <c r="C48" s="62">
-        <v>31</v>
-      </c>
-      <c r="D48" s="62">
-        <v>53</v>
-      </c>
-      <c r="E48" s="62">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="64" t="s">
-        <v>125</v>
-      </c>
-      <c r="B49" s="62">
-        <v>7</v>
-      </c>
-      <c r="C49" s="62">
-        <v>14</v>
-      </c>
-      <c r="D49" s="62">
-        <v>20</v>
-      </c>
-      <c r="E49" s="62">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="64" t="s">
-        <v>68</v>
-      </c>
-      <c r="B50" s="62">
-        <v>8</v>
-      </c>
-      <c r="C50" s="62">
-        <v>14</v>
-      </c>
-      <c r="D50" s="62">
-        <v>21</v>
-      </c>
-      <c r="E50" s="62">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="B51" s="62">
-        <v>3</v>
-      </c>
-      <c r="C51" s="62">
-        <v>9</v>
-      </c>
-      <c r="D51" s="62">
-        <v>13</v>
-      </c>
-      <c r="E51" s="62">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="30">
-      <c r="A52" s="64" t="s">
-        <v>70</v>
-      </c>
-      <c r="B52" s="62">
-        <v>50</v>
-      </c>
-      <c r="C52" s="62">
-        <v>113</v>
-      </c>
-      <c r="D52" s="62">
-        <v>190</v>
-      </c>
-      <c r="E52" s="62">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="B53" s="62">
-        <v>42</v>
-      </c>
-      <c r="C53" s="62">
-        <v>95</v>
-      </c>
-      <c r="D53" s="62">
-        <v>157</v>
-      </c>
-      <c r="E53" s="62">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="B54" s="62">
-        <v>23</v>
-      </c>
-      <c r="C54" s="62">
-        <v>57</v>
-      </c>
-      <c r="D54" s="62">
-        <v>92</v>
-      </c>
-      <c r="E54" s="62">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="B55" s="62">
-        <v>491</v>
-      </c>
-      <c r="C55" s="62">
-        <v>679</v>
-      </c>
-      <c r="D55" s="62">
-        <v>794</v>
-      </c>
-      <c r="E55" s="62">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="B56" s="62">
-        <v>3</v>
-      </c>
-      <c r="C56" s="62">
-        <v>219</v>
-      </c>
-      <c r="D56" s="62">
-        <v>558</v>
-      </c>
-      <c r="E56" s="62">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="64" t="s">
-        <v>130</v>
-      </c>
-      <c r="B57" s="62">
-        <v>7</v>
-      </c>
-      <c r="C57" s="62">
-        <v>12</v>
-      </c>
-      <c r="D57" s="62">
-        <v>18</v>
-      </c>
-      <c r="E57" s="62">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="B58" s="62">
-        <v>229</v>
-      </c>
-      <c r="C58" s="62">
-        <v>2281</v>
-      </c>
-      <c r="D58" s="62">
-        <v>4907</v>
-      </c>
-      <c r="E58" s="62">
-        <v>5719</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="64" t="s">
-        <v>75</v>
-      </c>
-      <c r="B59" s="62">
-        <v>25</v>
-      </c>
-      <c r="C59" s="62">
-        <v>71</v>
-      </c>
-      <c r="D59" s="62">
-        <v>114</v>
-      </c>
-      <c r="E59" s="62">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="B60" s="62">
-        <v>416</v>
-      </c>
-      <c r="C60" s="62">
-        <v>1074</v>
-      </c>
-      <c r="D60" s="62">
-        <v>1793</v>
-      </c>
-      <c r="E60" s="62">
-        <v>2290</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="B61" s="62">
-        <v>737</v>
-      </c>
-      <c r="C61" s="62">
-        <v>1559</v>
-      </c>
-      <c r="D61" s="62">
-        <v>2498</v>
-      </c>
-      <c r="E61" s="62">
-        <v>3361</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="B62" s="62">
-        <v>101</v>
-      </c>
-      <c r="C62" s="62">
-        <v>229</v>
-      </c>
-      <c r="D62" s="62">
-        <v>368</v>
-      </c>
-      <c r="E62" s="62">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="B63" s="62">
-        <v>3</v>
-      </c>
-      <c r="C63" s="62">
-        <v>31</v>
-      </c>
-      <c r="D63" s="62">
-        <v>66</v>
-      </c>
-      <c r="E63" s="62">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="B64" s="62">
-        <v>13</v>
-      </c>
-      <c r="C64" s="62">
-        <v>91</v>
-      </c>
-      <c r="D64" s="62">
-        <v>264</v>
-      </c>
-      <c r="E64" s="62">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="B65" s="62">
-        <v>118</v>
-      </c>
-      <c r="C65" s="62">
-        <v>250</v>
-      </c>
-      <c r="D65" s="62">
-        <v>370</v>
-      </c>
-      <c r="E65" s="62">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="64" t="s">
-        <v>81</v>
-      </c>
-      <c r="B66" s="62">
-        <v>66</v>
-      </c>
-      <c r="C66" s="62">
-        <v>120</v>
-      </c>
-      <c r="D66" s="62">
-        <v>176</v>
-      </c>
-      <c r="E66" s="62">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="B67" s="62">
-        <v>12</v>
-      </c>
-      <c r="C67" s="62">
-        <v>25</v>
-      </c>
-      <c r="D67" s="62">
-        <v>41</v>
-      </c>
-      <c r="E67" s="62">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="64" t="s">
-        <v>131</v>
-      </c>
-      <c r="B68" s="62">
-        <v>5</v>
-      </c>
-      <c r="C68" s="62">
-        <v>5</v>
-      </c>
-      <c r="D68" s="62">
-        <v>5</v>
-      </c>
-      <c r="E68" s="62">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="B69" s="62">
-        <v>410</v>
-      </c>
-      <c r="C69" s="62">
-        <v>858</v>
-      </c>
-      <c r="D69" s="62">
-        <v>1343</v>
-      </c>
-      <c r="E69" s="62">
-        <v>1798</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="64" t="s">
-        <v>84</v>
-      </c>
-      <c r="B70" s="62">
-        <v>79</v>
-      </c>
-      <c r="C70" s="62">
-        <v>189</v>
-      </c>
-      <c r="D70" s="62">
-        <v>320</v>
-      </c>
-      <c r="E70" s="62">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="64" t="s">
-        <v>86</v>
-      </c>
-      <c r="B71" s="62">
-        <v>15</v>
-      </c>
-      <c r="C71" s="62">
-        <v>36</v>
-      </c>
-      <c r="D71" s="62">
-        <v>55</v>
-      </c>
-      <c r="E71" s="62">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="66" t="s">
-        <v>87</v>
-      </c>
-      <c r="B72" s="67">
-        <v>26</v>
-      </c>
-      <c r="C72" s="67">
-        <v>47</v>
-      </c>
-      <c r="D72" s="67">
-        <v>88</v>
-      </c>
-      <c r="E72" s="67">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="68"/>
-      <c r="B73" s="69"/>
-      <c r="C73" s="70"/>
-      <c r="D73" s="70"/>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="68"/>
-      <c r="B74" s="71"/>
-      <c r="C74" s="70"/>
-      <c r="D74" s="53"/>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="C75" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -10544,14 +9144,776 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E75"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10:B72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.5703125" style="50" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" style="72" customWidth="1"/>
+    <col min="3" max="5" width="23.7109375" style="50" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="50"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="33" customHeight="1">
+      <c r="A1" s="129" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="129"/>
+    </row>
+    <row r="2" spans="1:5" ht="39" customHeight="1">
+      <c r="A2" s="135" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75">
+      <c r="A3" s="54"/>
+      <c r="B3" s="55"/>
+      <c r="E3" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.5" customHeight="1">
+      <c r="A4" s="57"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60">
+        <v>41964</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="62"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="62"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="62">
+        <v>4496</v>
+      </c>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="62">
+        <v>249</v>
+      </c>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="62">
+        <v>748</v>
+      </c>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="62">
+        <v>434</v>
+      </c>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="62">
+        <v>18</v>
+      </c>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="62">
+        <v>85</v>
+      </c>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="62">
+        <v>437</v>
+      </c>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="62">
+        <v>169</v>
+      </c>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="62">
+        <v>531</v>
+      </c>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="62">
+        <v>1297</v>
+      </c>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="62">
+        <v>25</v>
+      </c>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="62">
+        <v>808</v>
+      </c>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="62">
+        <v>1233</v>
+      </c>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="62">
+        <v>34</v>
+      </c>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" s="62">
+        <v>217</v>
+      </c>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="62">
+        <v>356</v>
+      </c>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="62">
+        <v>197</v>
+      </c>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="62">
+        <v>52</v>
+      </c>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="62">
+        <v>9</v>
+      </c>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="62">
+        <v>961</v>
+      </c>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="62">
+        <v>1086</v>
+      </c>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="62">
+        <v>2955</v>
+      </c>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" s="62">
+        <v>107</v>
+      </c>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30" s="62">
+        <v>826</v>
+      </c>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="62">
+        <v>239</v>
+      </c>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="62">
+        <v>2018</v>
+      </c>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="62">
+        <v>106</v>
+      </c>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="62">
+        <v>418</v>
+      </c>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="62">
+        <v>635</v>
+      </c>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" s="62">
+        <v>38</v>
+      </c>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="B37" s="62">
+        <v>14</v>
+      </c>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="B38" s="62">
+        <v>13</v>
+      </c>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="62">
+        <v>111</v>
+      </c>
+      <c r="C39" s="62"/>
+      <c r="D39" s="62"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" s="62">
+        <v>223</v>
+      </c>
+      <c r="C40" s="62"/>
+      <c r="D40" s="62"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="62">
+        <v>108</v>
+      </c>
+      <c r="C41" s="62"/>
+      <c r="D41" s="62"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="64" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" s="62">
+        <v>941</v>
+      </c>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="62">
+        <v>1093</v>
+      </c>
+      <c r="C43" s="62"/>
+      <c r="D43" s="62"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="62">
+        <v>60</v>
+      </c>
+      <c r="C44" s="62"/>
+      <c r="D44" s="62"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="62">
+        <v>244</v>
+      </c>
+      <c r="C45" s="62"/>
+      <c r="D45" s="62"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" s="62">
+        <v>230</v>
+      </c>
+      <c r="C46" s="62"/>
+      <c r="D46" s="62"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" s="62">
+        <v>16</v>
+      </c>
+      <c r="C47" s="62"/>
+      <c r="D47" s="62"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" s="62">
+        <v>68</v>
+      </c>
+      <c r="C48" s="62"/>
+      <c r="D48" s="62"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="64" t="s">
+        <v>125</v>
+      </c>
+      <c r="B49" s="62">
+        <v>26</v>
+      </c>
+      <c r="C49" s="62"/>
+      <c r="D49" s="62"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" s="62">
+        <v>29</v>
+      </c>
+      <c r="C50" s="62"/>
+      <c r="D50" s="62"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" s="62">
+        <v>19</v>
+      </c>
+      <c r="C51" s="62"/>
+      <c r="D51" s="62"/>
+    </row>
+    <row r="52" spans="1:4" ht="30">
+      <c r="A52" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="62">
+        <v>252</v>
+      </c>
+      <c r="C52" s="62"/>
+      <c r="D52" s="62"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" s="62">
+        <v>213</v>
+      </c>
+      <c r="C53" s="62"/>
+      <c r="D53" s="62"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" s="62">
+        <v>118</v>
+      </c>
+      <c r="C54" s="62"/>
+      <c r="D54" s="62"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55" s="62">
+        <v>1173</v>
+      </c>
+      <c r="C55" s="62"/>
+      <c r="D55" s="62"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="B56" s="62">
+        <v>611</v>
+      </c>
+      <c r="C56" s="62"/>
+      <c r="D56" s="62"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="B57" s="62">
+        <v>24</v>
+      </c>
+      <c r="C57" s="62"/>
+      <c r="D57" s="62"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" s="62">
+        <v>5719</v>
+      </c>
+      <c r="C58" s="62"/>
+      <c r="D58" s="62"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59" s="62">
+        <v>154</v>
+      </c>
+      <c r="C59" s="62"/>
+      <c r="D59" s="62"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" s="62">
+        <v>2290</v>
+      </c>
+      <c r="C60" s="62"/>
+      <c r="D60" s="62"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="B61" s="62">
+        <v>3361</v>
+      </c>
+      <c r="C61" s="62"/>
+      <c r="D61" s="62"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" s="62">
+        <v>476</v>
+      </c>
+      <c r="C62" s="62"/>
+      <c r="D62" s="62"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63" s="62">
+        <v>69</v>
+      </c>
+      <c r="C63" s="62"/>
+      <c r="D63" s="62"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="B64" s="62">
+        <v>285</v>
+      </c>
+      <c r="C64" s="62"/>
+      <c r="D64" s="62"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="B65" s="62">
+        <v>494</v>
+      </c>
+      <c r="C65" s="62"/>
+      <c r="D65" s="62"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="64" t="s">
+        <v>81</v>
+      </c>
+      <c r="B66" s="62">
+        <v>232</v>
+      </c>
+      <c r="C66" s="62"/>
+      <c r="D66" s="62"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="B67" s="62">
+        <v>55</v>
+      </c>
+      <c r="C67" s="62"/>
+      <c r="D67" s="62"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="B68" s="62">
+        <v>16</v>
+      </c>
+      <c r="C68" s="62"/>
+      <c r="D68" s="62"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69" s="62">
+        <v>1798</v>
+      </c>
+      <c r="C69" s="62"/>
+      <c r="D69" s="62"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="B70" s="62">
+        <v>420</v>
+      </c>
+      <c r="C70" s="62"/>
+      <c r="D70" s="62"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="B71" s="62">
+        <v>80</v>
+      </c>
+      <c r="C71" s="62"/>
+      <c r="D71" s="62"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="B72" s="67">
+        <v>145</v>
+      </c>
+      <c r="C72" s="67"/>
+      <c r="D72" s="67"/>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="68"/>
+      <c r="B73" s="69"/>
+      <c r="C73" s="70"/>
+      <c r="D73" s="70"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="68"/>
+      <c r="B74" s="71"/>
+      <c r="C74" s="70"/>
+      <c r="D74" s="53"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="C75" s="53"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Содержание!A1" display="          К содержанию"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="63" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7:E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10562,19 +9924,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="129" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="134"/>
+      <c r="B1" s="129"/>
     </row>
     <row r="2" spans="1:5" ht="39" customHeight="1">
-      <c r="A2" s="140" t="s">
+      <c r="A2" s="135" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
     </row>
     <row r="3" spans="1:5" ht="15.75">
       <c r="A3" s="54"/>
@@ -11776,9 +11138,9 @@
   <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7:E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11789,19 +11151,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="129" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="134"/>
+      <c r="B1" s="129"/>
     </row>
     <row r="2" spans="1:5" ht="39" customHeight="1">
-      <c r="A2" s="140" t="s">
+      <c r="A2" s="135" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
     </row>
     <row r="3" spans="1:5" ht="15.75">
       <c r="A3" s="54"/>
@@ -13002,9 +12364,9 @@
   <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7:E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13015,19 +12377,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="129" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="134"/>
+      <c r="B1" s="129"/>
     </row>
     <row r="2" spans="1:5" ht="39" customHeight="1">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="136" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
     </row>
     <row r="3" spans="1:5" ht="15.75">
       <c r="A3" s="103"/>
@@ -14228,7 +13590,7 @@
   <dimension ref="A1:P74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="D7" sqref="D7:D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14240,10 +13602,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="50" customFormat="1" ht="33" customHeight="1">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="129" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="134"/>
+      <c r="B1" s="129"/>
       <c r="F1"/>
       <c r="G1"/>
       <c r="H1"/>
@@ -14257,12 +13619,12 @@
       <c r="P1"/>
     </row>
     <row r="2" spans="1:16" ht="46.5" customHeight="1">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="136" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
     </row>
     <row r="3" spans="1:16" ht="15.75">
       <c r="A3" s="103"/>
@@ -14276,23 +13638,23 @@
         <v>166</v>
       </c>
       <c r="C4" s="105" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D4" s="105" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="125">
+      <c r="B5" s="122">
         <v>3382.9830000000002</v>
       </c>
-      <c r="C5" s="125">
+      <c r="C5" s="122">
         <v>7965.6790000000001</v>
       </c>
-      <c r="D5" s="125">
+      <c r="D5" s="122">
         <v>17148.584999999999</v>
       </c>
     </row>
@@ -14300,21 +13662,21 @@
       <c r="A6" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="111" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="127">
+      <c r="B7" s="124">
         <v>740.26199999999994</v>
       </c>
-      <c r="C7" s="127">
+      <c r="C7" s="124">
         <v>1931.9649999999999</v>
       </c>
-      <c r="D7" s="127">
+      <c r="D7" s="124">
         <v>4395.8959999999997</v>
       </c>
     </row>
@@ -14322,13 +13684,13 @@
       <c r="A8" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="127">
+      <c r="B8" s="124">
         <v>10.63</v>
       </c>
-      <c r="C8" s="127">
+      <c r="C8" s="124">
         <v>10.798</v>
       </c>
-      <c r="D8" s="127">
+      <c r="D8" s="124">
         <v>10.8</v>
       </c>
     </row>
@@ -14336,13 +13698,13 @@
       <c r="A9" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="127">
+      <c r="B9" s="124">
         <v>40.984999999999999</v>
       </c>
-      <c r="C9" s="127">
+      <c r="C9" s="124">
         <v>94.417000000000002</v>
       </c>
-      <c r="D9" s="127">
+      <c r="D9" s="124">
         <v>222.67</v>
       </c>
     </row>
@@ -14350,13 +13712,13 @@
       <c r="A10" s="111" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="127">
+      <c r="B10" s="124">
         <v>124.366</v>
       </c>
-      <c r="C10" s="127">
+      <c r="C10" s="124">
         <v>293.14800000000002</v>
       </c>
-      <c r="D10" s="127">
+      <c r="D10" s="124">
         <v>542.18899999999996</v>
       </c>
     </row>
@@ -14364,13 +13726,13 @@
       <c r="A11" s="111" t="s">
         <v>128</v>
       </c>
-      <c r="B11" s="127">
+      <c r="B11" s="124">
         <v>2.7679999999999998</v>
       </c>
-      <c r="C11" s="127">
+      <c r="C11" s="124">
         <v>7.5540000000000003</v>
       </c>
-      <c r="D11" s="127">
+      <c r="D11" s="124">
         <v>16.501999999999999</v>
       </c>
     </row>
@@ -14378,13 +13740,13 @@
       <c r="A12" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="127">
+      <c r="B12" s="124">
         <v>2.5299999999999998</v>
       </c>
-      <c r="C12" s="127">
+      <c r="C12" s="124">
         <v>2.5310000000000001</v>
       </c>
-      <c r="D12" s="127">
+      <c r="D12" s="124">
         <v>2.5350000000000001</v>
       </c>
     </row>
@@ -14392,13 +13754,13 @@
       <c r="A13" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="127">
+      <c r="B13" s="124">
         <v>16.54</v>
       </c>
-      <c r="C13" s="127">
+      <c r="C13" s="124">
         <v>16.54</v>
       </c>
-      <c r="D13" s="127">
+      <c r="D13" s="124">
         <v>16.54</v>
       </c>
     </row>
@@ -14406,13 +13768,13 @@
       <c r="A14" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="127">
+      <c r="B14" s="124">
         <v>34.987000000000002</v>
       </c>
-      <c r="C14" s="127">
+      <c r="C14" s="124">
         <v>34.987000000000002</v>
       </c>
-      <c r="D14" s="127">
+      <c r="D14" s="124">
         <v>34.991</v>
       </c>
     </row>
@@ -14420,13 +13782,13 @@
       <c r="A15" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="127">
+      <c r="B15" s="124">
         <v>4.5940000000000003</v>
       </c>
-      <c r="C15" s="127">
+      <c r="C15" s="124">
         <v>4.5990000000000002</v>
       </c>
-      <c r="D15" s="127">
+      <c r="D15" s="124">
         <v>4.6310000000000002</v>
       </c>
     </row>
@@ -14434,13 +13796,13 @@
       <c r="A16" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="127">
+      <c r="B16" s="124">
         <v>49.183999999999997</v>
       </c>
-      <c r="C16" s="127">
+      <c r="C16" s="124">
         <v>49.186999999999998</v>
       </c>
-      <c r="D16" s="127">
+      <c r="D16" s="124">
         <v>49.191000000000003</v>
       </c>
     </row>
@@ -14448,13 +13810,13 @@
       <c r="A17" s="111" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="127">
+      <c r="B17" s="124">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="C17" s="127">
+      <c r="C17" s="124">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="D17" s="127">
+      <c r="D17" s="124">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
@@ -14462,13 +13824,13 @@
       <c r="A18" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="127">
+      <c r="B18" s="124">
         <v>15.11</v>
       </c>
-      <c r="C18" s="127">
+      <c r="C18" s="124">
         <v>15.11</v>
       </c>
-      <c r="D18" s="127">
+      <c r="D18" s="124">
         <v>15.132</v>
       </c>
     </row>
@@ -14476,13 +13838,13 @@
       <c r="A19" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="127">
+      <c r="B19" s="124">
         <v>29.917999999999999</v>
       </c>
-      <c r="C19" s="127">
+      <c r="C19" s="124">
         <v>181.36699999999999</v>
       </c>
-      <c r="D19" s="127">
+      <c r="D19" s="124">
         <v>631.27</v>
       </c>
     </row>
@@ -14490,13 +13852,13 @@
       <c r="A20" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="127">
+      <c r="B20" s="124">
         <v>1.153</v>
       </c>
-      <c r="C20" s="127">
+      <c r="C20" s="124">
         <v>1.153</v>
       </c>
-      <c r="D20" s="127">
+      <c r="D20" s="124">
         <v>1.1539999999999999</v>
       </c>
     </row>
@@ -14504,13 +13866,13 @@
       <c r="A21" s="111" t="s">
         <v>118</v>
       </c>
-      <c r="B21" s="127">
+      <c r="B21" s="124">
         <v>88.031999999999996</v>
       </c>
-      <c r="C21" s="127">
+      <c r="C21" s="124">
         <v>88.031999999999996</v>
       </c>
-      <c r="D21" s="127">
+      <c r="D21" s="124">
         <v>88.031999999999996</v>
       </c>
     </row>
@@ -14518,13 +13880,13 @@
       <c r="A22" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="127">
+      <c r="B22" s="124">
         <v>334.06</v>
       </c>
-      <c r="C22" s="127">
+      <c r="C22" s="124">
         <v>406.858</v>
       </c>
-      <c r="D22" s="127">
+      <c r="D22" s="124">
         <v>578.76199999999994</v>
       </c>
     </row>
@@ -14532,13 +13894,13 @@
       <c r="A23" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="127">
+      <c r="B23" s="124">
         <v>20.423999999999999</v>
       </c>
-      <c r="C23" s="127">
+      <c r="C23" s="124">
         <v>41.701000000000001</v>
       </c>
-      <c r="D23" s="127">
+      <c r="D23" s="124">
         <v>62.411000000000001</v>
       </c>
     </row>
@@ -14546,13 +13908,13 @@
       <c r="A24" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="127">
+      <c r="B24" s="124">
         <v>7.9909999999999997</v>
       </c>
-      <c r="C24" s="127">
+      <c r="C24" s="124">
         <v>9.8699999999999992</v>
       </c>
-      <c r="D24" s="127">
+      <c r="D24" s="124">
         <v>16.579000000000001</v>
       </c>
     </row>
@@ -14560,13 +13922,13 @@
       <c r="A25" s="111" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="127">
+      <c r="B25" s="124">
         <v>2E-3</v>
       </c>
-      <c r="C25" s="127">
+      <c r="C25" s="124">
         <v>2E-3</v>
       </c>
-      <c r="D25" s="127">
+      <c r="D25" s="124">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -14574,13 +13936,13 @@
       <c r="A26" s="111" t="s">
         <v>119</v>
       </c>
-      <c r="B26" s="127">
+      <c r="B26" s="124">
         <v>0.59799999999999998</v>
       </c>
-      <c r="C26" s="127">
+      <c r="C26" s="124">
         <v>0.59799999999999998</v>
       </c>
-      <c r="D26" s="127">
+      <c r="D26" s="124">
         <v>0.69499999999999995</v>
       </c>
     </row>
@@ -14588,13 +13950,13 @@
       <c r="A27" s="111" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="127">
+      <c r="B27" s="124">
         <v>18.875</v>
       </c>
-      <c r="C27" s="127">
+      <c r="C27" s="124">
         <v>18.875</v>
       </c>
-      <c r="D27" s="127">
+      <c r="D27" s="124">
         <v>18.879000000000001</v>
       </c>
     </row>
@@ -14602,13 +13964,13 @@
       <c r="A28" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="127">
+      <c r="B28" s="124">
         <v>19.937000000000001</v>
       </c>
-      <c r="C28" s="127">
+      <c r="C28" s="124">
         <v>19.957999999999998</v>
       </c>
-      <c r="D28" s="127">
+      <c r="D28" s="124">
         <v>19.966000000000001</v>
       </c>
     </row>
@@ -14616,13 +13978,13 @@
       <c r="A29" s="111" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="127">
+      <c r="B29" s="124">
         <v>140.06399999999999</v>
       </c>
-      <c r="C29" s="127">
+      <c r="C29" s="124">
         <v>654.19399999999996</v>
       </c>
-      <c r="D29" s="127">
+      <c r="D29" s="124">
         <v>1838.1189999999999</v>
       </c>
     </row>
@@ -14630,13 +13992,13 @@
       <c r="A30" s="111" t="s">
         <v>120</v>
       </c>
-      <c r="B30" s="127">
+      <c r="B30" s="124">
         <v>16.158999999999999</v>
       </c>
-      <c r="C30" s="127">
+      <c r="C30" s="124">
         <v>29.312999999999999</v>
       </c>
-      <c r="D30" s="127">
+      <c r="D30" s="124">
         <v>42.106000000000002</v>
       </c>
     </row>
@@ -14644,13 +14006,13 @@
       <c r="A31" s="111" t="s">
         <v>121</v>
       </c>
-      <c r="B31" s="127">
+      <c r="B31" s="124">
         <v>17.481000000000002</v>
       </c>
-      <c r="C31" s="127">
+      <c r="C31" s="124">
         <v>17.561</v>
       </c>
-      <c r="D31" s="127">
+      <c r="D31" s="124">
         <v>17.611000000000001</v>
       </c>
     </row>
@@ -14658,13 +14020,13 @@
       <c r="A32" s="111" t="s">
         <v>52</v>
       </c>
-      <c r="B32" s="127">
+      <c r="B32" s="124">
         <v>40.588999999999999</v>
       </c>
-      <c r="C32" s="127">
+      <c r="C32" s="124">
         <v>153.05199999999999</v>
       </c>
-      <c r="D32" s="127">
+      <c r="D32" s="124">
         <v>305.08100000000002</v>
       </c>
     </row>
@@ -14672,13 +14034,13 @@
       <c r="A33" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="127">
+      <c r="B33" s="124">
         <v>1.319</v>
       </c>
-      <c r="C33" s="127">
+      <c r="C33" s="124">
         <v>1.6930000000000001</v>
       </c>
-      <c r="D33" s="127">
+      <c r="D33" s="124">
         <v>4.1879999999999997</v>
       </c>
     </row>
@@ -14686,13 +14048,13 @@
       <c r="A34" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="127">
+      <c r="B34" s="124">
         <v>32.966999999999999</v>
       </c>
-      <c r="C34" s="127">
+      <c r="C34" s="124">
         <v>32.966999999999999</v>
       </c>
-      <c r="D34" s="127">
+      <c r="D34" s="124">
         <v>32.966999999999999</v>
       </c>
     </row>
@@ -14700,13 +14062,13 @@
       <c r="A35" s="111" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="127">
+      <c r="B35" s="124">
         <v>12.159000000000001</v>
       </c>
-      <c r="C35" s="127">
+      <c r="C35" s="124">
         <v>27.632999999999999</v>
       </c>
-      <c r="D35" s="127">
+      <c r="D35" s="124">
         <v>54.735999999999997</v>
       </c>
     </row>
@@ -14714,13 +14076,13 @@
       <c r="A36" s="111" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="127">
+      <c r="B36" s="124">
         <v>22.853999999999999</v>
       </c>
-      <c r="C36" s="127">
+      <c r="C36" s="124">
         <v>64.691999999999993</v>
       </c>
-      <c r="D36" s="127">
+      <c r="D36" s="124">
         <v>145.94900000000001</v>
       </c>
     </row>
@@ -14728,13 +14090,13 @@
       <c r="A37" s="111" t="s">
         <v>122</v>
       </c>
-      <c r="B37" s="127">
+      <c r="B37" s="124">
         <v>39.963000000000001</v>
       </c>
-      <c r="C37" s="127">
+      <c r="C37" s="124">
         <v>50.280999999999999</v>
       </c>
-      <c r="D37" s="127">
+      <c r="D37" s="124">
         <v>79.085999999999999</v>
       </c>
     </row>
@@ -14742,13 +14104,13 @@
       <c r="A38" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="B38" s="127">
+      <c r="B38" s="124">
         <v>22.795999999999999</v>
       </c>
-      <c r="C38" s="127">
+      <c r="C38" s="124">
         <v>22.795999999999999</v>
       </c>
-      <c r="D38" s="127">
+      <c r="D38" s="124">
         <v>22.795999999999999</v>
       </c>
     </row>
@@ -14756,13 +14118,13 @@
       <c r="A39" s="111" t="s">
         <v>59</v>
       </c>
-      <c r="B39" s="127">
+      <c r="B39" s="124">
         <v>1.359</v>
       </c>
-      <c r="C39" s="127">
+      <c r="C39" s="124">
         <v>30.125</v>
       </c>
-      <c r="D39" s="127">
+      <c r="D39" s="124">
         <v>92.019000000000005</v>
       </c>
     </row>
@@ -14770,13 +14132,13 @@
       <c r="A40" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="B40" s="127">
+      <c r="B40" s="124">
         <v>17.111000000000001</v>
       </c>
-      <c r="C40" s="127">
+      <c r="C40" s="124">
         <v>17.113</v>
       </c>
-      <c r="D40" s="127">
+      <c r="D40" s="124">
         <v>17.113</v>
       </c>
     </row>
@@ -14784,13 +14146,13 @@
       <c r="A41" s="111" t="s">
         <v>61</v>
       </c>
-      <c r="B41" s="127">
+      <c r="B41" s="124">
         <v>2.839</v>
       </c>
-      <c r="C41" s="127">
+      <c r="C41" s="124">
         <v>5.2089999999999996</v>
       </c>
-      <c r="D41" s="127">
+      <c r="D41" s="124">
         <v>12.135999999999999</v>
       </c>
     </row>
@@ -14798,13 +14160,13 @@
       <c r="A42" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="B42" s="127">
+      <c r="B42" s="124">
         <v>250.399</v>
       </c>
-      <c r="C42" s="127">
+      <c r="C42" s="124">
         <v>443.77499999999998</v>
       </c>
-      <c r="D42" s="127">
+      <c r="D42" s="124">
         <v>708.63400000000001</v>
       </c>
     </row>
@@ -14812,13 +14174,13 @@
       <c r="A43" s="111" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="127">
+      <c r="B43" s="124">
         <v>21.238</v>
       </c>
-      <c r="C43" s="127">
+      <c r="C43" s="124">
         <v>38.722000000000001</v>
       </c>
-      <c r="D43" s="127">
+      <c r="D43" s="124">
         <v>81.650000000000006</v>
       </c>
     </row>
@@ -14826,13 +14188,13 @@
       <c r="A44" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="127">
+      <c r="B44" s="124">
         <v>1.8</v>
       </c>
-      <c r="C44" s="127">
+      <c r="C44" s="124">
         <v>1.8</v>
       </c>
-      <c r="D44" s="127">
+      <c r="D44" s="124">
         <v>1.8</v>
       </c>
     </row>
@@ -14840,13 +14202,13 @@
       <c r="A45" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="127">
+      <c r="B45" s="124">
         <v>2.46</v>
       </c>
-      <c r="C45" s="127">
+      <c r="C45" s="124">
         <v>2.4780000000000002</v>
       </c>
-      <c r="D45" s="127">
+      <c r="D45" s="124">
         <v>3.5259999999999998</v>
       </c>
     </row>
@@ -14854,13 +14216,13 @@
       <c r="A46" s="111" t="s">
         <v>65</v>
       </c>
-      <c r="B46" s="127">
+      <c r="B46" s="124">
         <v>17.152999999999999</v>
       </c>
-      <c r="C46" s="127">
+      <c r="C46" s="124">
         <v>17.152999999999999</v>
       </c>
-      <c r="D46" s="127">
+      <c r="D46" s="124">
         <v>17.152999999999999</v>
       </c>
     </row>
@@ -14868,13 +14230,13 @@
       <c r="A47" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="B47" s="127">
+      <c r="B47" s="124">
         <v>0.58199999999999996</v>
       </c>
-      <c r="C47" s="127">
+      <c r="C47" s="124">
         <v>0.58199999999999996</v>
       </c>
-      <c r="D47" s="127">
+      <c r="D47" s="124">
         <v>0.58199999999999996</v>
       </c>
     </row>
@@ -14882,13 +14244,13 @@
       <c r="A48" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="B48" s="127">
+      <c r="B48" s="124">
         <v>22.731000000000002</v>
       </c>
-      <c r="C48" s="127">
+      <c r="C48" s="124">
         <v>39.652999999999999</v>
       </c>
-      <c r="D48" s="127">
+      <c r="D48" s="124">
         <v>65.454999999999998</v>
       </c>
     </row>
@@ -14896,13 +14258,13 @@
       <c r="A49" s="111" t="s">
         <v>125</v>
       </c>
-      <c r="B49" s="127">
+      <c r="B49" s="124">
         <v>3.2879999999999998</v>
       </c>
-      <c r="C49" s="127">
+      <c r="C49" s="124">
         <v>3.2879999999999998</v>
       </c>
-      <c r="D49" s="127">
+      <c r="D49" s="124">
         <v>3.2879999999999998</v>
       </c>
     </row>
@@ -14910,13 +14272,13 @@
       <c r="A50" s="111" t="s">
         <v>68</v>
       </c>
-      <c r="B50" s="127">
+      <c r="B50" s="124">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C50" s="127">
+      <c r="C50" s="124">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D50" s="127">
+      <c r="D50" s="124">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
@@ -14924,13 +14286,13 @@
       <c r="A51" s="111" t="s">
         <v>69</v>
       </c>
-      <c r="B51" s="127">
+      <c r="B51" s="124">
         <v>3.94</v>
       </c>
-      <c r="C51" s="127">
+      <c r="C51" s="124">
         <v>3.94</v>
       </c>
-      <c r="D51" s="127">
+      <c r="D51" s="124">
         <v>3.94</v>
       </c>
     </row>
@@ -14938,13 +14300,13 @@
       <c r="A52" s="111" t="s">
         <v>70</v>
       </c>
-      <c r="B52" s="127">
+      <c r="B52" s="124">
         <v>10.372</v>
       </c>
-      <c r="C52" s="127">
+      <c r="C52" s="124">
         <v>10.372</v>
       </c>
-      <c r="D52" s="127">
+      <c r="D52" s="124">
         <v>10.372</v>
       </c>
     </row>
@@ -14952,13 +14314,13 @@
       <c r="A53" s="111" t="s">
         <v>71</v>
       </c>
-      <c r="B53" s="127">
+      <c r="B53" s="124">
         <v>14.362</v>
       </c>
-      <c r="C53" s="127">
+      <c r="C53" s="124">
         <v>14.362</v>
       </c>
-      <c r="D53" s="127">
+      <c r="D53" s="124">
         <v>14.417</v>
       </c>
     </row>
@@ -14966,13 +14328,13 @@
       <c r="A54" s="111" t="s">
         <v>72</v>
       </c>
-      <c r="B54" s="127">
+      <c r="B54" s="124">
         <v>29.59</v>
       </c>
-      <c r="C54" s="127">
+      <c r="C54" s="124">
         <v>101.938</v>
       </c>
-      <c r="D54" s="127">
+      <c r="D54" s="124">
         <v>188.54</v>
       </c>
     </row>
@@ -14980,13 +14342,13 @@
       <c r="A55" s="111" t="s">
         <v>73</v>
       </c>
-      <c r="B55" s="127">
+      <c r="B55" s="124">
         <v>28.53</v>
       </c>
-      <c r="C55" s="127">
+      <c r="C55" s="124">
         <v>28.53</v>
       </c>
-      <c r="D55" s="127">
+      <c r="D55" s="124">
         <v>28.53</v>
       </c>
     </row>
@@ -14994,13 +14356,13 @@
       <c r="A56" s="111" t="s">
         <v>126</v>
       </c>
-      <c r="B56" s="127">
+      <c r="B56" s="124">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="C56" s="127">
+      <c r="C56" s="124">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D56" s="127">
+      <c r="D56" s="124">
         <v>3.149</v>
       </c>
     </row>
@@ -15008,13 +14370,13 @@
       <c r="A57" s="111" t="s">
         <v>130</v>
       </c>
-      <c r="B57" s="127">
+      <c r="B57" s="124">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="C57" s="127">
+      <c r="C57" s="124">
         <v>0.61199999999999999</v>
       </c>
-      <c r="D57" s="127">
+      <c r="D57" s="124">
         <v>1.6539999999999999</v>
       </c>
     </row>
@@ -15022,13 +14384,13 @@
       <c r="A58" s="111" t="s">
         <v>74</v>
       </c>
-      <c r="B58" s="127">
+      <c r="B58" s="124">
         <v>338.26</v>
       </c>
-      <c r="C58" s="127">
+      <c r="C58" s="124">
         <v>1322.4760000000001</v>
       </c>
-      <c r="D58" s="127">
+      <c r="D58" s="124">
         <v>3407.1089999999999</v>
       </c>
     </row>
@@ -15036,13 +14398,13 @@
       <c r="A59" s="111" t="s">
         <v>75</v>
       </c>
-      <c r="B59" s="127">
+      <c r="B59" s="124">
         <v>38.625</v>
       </c>
-      <c r="C59" s="127">
+      <c r="C59" s="124">
         <v>126.566</v>
       </c>
-      <c r="D59" s="127">
+      <c r="D59" s="124">
         <v>241.095</v>
       </c>
     </row>
@@ -15050,13 +14412,13 @@
       <c r="A60" s="111" t="s">
         <v>76</v>
       </c>
-      <c r="B60" s="127">
+      <c r="B60" s="124">
         <v>319.76799999999997</v>
       </c>
-      <c r="C60" s="127">
+      <c r="C60" s="124">
         <v>348.46300000000002</v>
       </c>
-      <c r="D60" s="127">
+      <c r="D60" s="124">
         <v>416.64800000000002</v>
       </c>
     </row>
@@ -15064,13 +14426,13 @@
       <c r="A61" s="111" t="s">
         <v>77</v>
       </c>
-      <c r="B61" s="127">
+      <c r="B61" s="124">
         <v>100.22499999999999</v>
       </c>
-      <c r="C61" s="127">
+      <c r="C61" s="124">
         <v>221.06700000000001</v>
       </c>
-      <c r="D61" s="127">
+      <c r="D61" s="124">
         <v>637.06600000000003</v>
       </c>
     </row>
@@ -15078,13 +14440,13 @@
       <c r="A62" s="111" t="s">
         <v>78</v>
       </c>
-      <c r="B62" s="127">
+      <c r="B62" s="124">
         <v>15.484999999999999</v>
       </c>
-      <c r="C62" s="127">
+      <c r="C62" s="124">
         <v>15.489000000000001</v>
       </c>
-      <c r="D62" s="127">
+      <c r="D62" s="124">
         <v>15.558999999999999</v>
       </c>
     </row>
@@ -15092,13 +14454,13 @@
       <c r="A63" s="111" t="s">
         <v>79</v>
       </c>
-      <c r="B63" s="127">
+      <c r="B63" s="124">
         <v>8.7769999999999992</v>
       </c>
-      <c r="C63" s="127">
+      <c r="C63" s="124">
         <v>8.7769999999999992</v>
       </c>
-      <c r="D63" s="127">
+      <c r="D63" s="124">
         <v>8.7769999999999992</v>
       </c>
     </row>
@@ -15106,13 +14468,13 @@
       <c r="A64" s="111" t="s">
         <v>127</v>
       </c>
-      <c r="B64" s="127">
+      <c r="B64" s="124">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="C64" s="127">
+      <c r="C64" s="124">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="D64" s="127">
+      <c r="D64" s="124">
         <v>9.4E-2</v>
       </c>
     </row>
@@ -15120,13 +14482,13 @@
       <c r="A65" s="111" t="s">
         <v>80</v>
       </c>
-      <c r="B65" s="127">
+      <c r="B65" s="124">
         <v>6.2990000000000004</v>
       </c>
-      <c r="C65" s="127">
+      <c r="C65" s="124">
         <v>6.2990000000000004</v>
       </c>
-      <c r="D65" s="127">
+      <c r="D65" s="124">
         <v>6.3029999999999999</v>
       </c>
     </row>
@@ -15134,13 +14496,13 @@
       <c r="A66" s="111" t="s">
         <v>81</v>
       </c>
-      <c r="B66" s="127">
+      <c r="B66" s="124">
         <v>14.775</v>
       </c>
-      <c r="C66" s="127">
+      <c r="C66" s="124">
         <v>14.775</v>
       </c>
-      <c r="D66" s="127">
+      <c r="D66" s="124">
         <v>14.779</v>
       </c>
     </row>
@@ -15148,13 +14510,13 @@
       <c r="A67" s="111" t="s">
         <v>82</v>
       </c>
-      <c r="B67" s="127">
+      <c r="B67" s="124">
         <v>1.857</v>
       </c>
-      <c r="C67" s="127">
+      <c r="C67" s="124">
         <v>1.857</v>
       </c>
-      <c r="D67" s="127">
+      <c r="D67" s="124">
         <v>1.857</v>
       </c>
     </row>
@@ -15162,13 +14524,13 @@
       <c r="A68" s="111" t="s">
         <v>131</v>
       </c>
-      <c r="B68" s="127">
+      <c r="B68" s="124">
         <v>10.596</v>
       </c>
-      <c r="C68" s="127">
+      <c r="C68" s="124">
         <v>15.891</v>
       </c>
-      <c r="D68" s="127">
+      <c r="D68" s="124">
         <v>15.891</v>
       </c>
     </row>
@@ -15176,13 +14538,13 @@
       <c r="A69" s="111" t="s">
         <v>83</v>
       </c>
-      <c r="B69" s="127">
+      <c r="B69" s="124">
         <v>105.318</v>
       </c>
-      <c r="C69" s="127">
+      <c r="C69" s="124">
         <v>260.51100000000002</v>
       </c>
-      <c r="D69" s="127">
+      <c r="D69" s="124">
         <v>488.25900000000001</v>
       </c>
     </row>
@@ -15190,13 +14552,13 @@
       <c r="A70" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="B70" s="127">
+      <c r="B70" s="124">
         <v>55.237000000000002</v>
       </c>
-      <c r="C70" s="127">
+      <c r="C70" s="124">
         <v>145.80099999999999</v>
       </c>
-      <c r="D70" s="127">
+      <c r="D70" s="124">
         <v>259.15600000000001</v>
       </c>
     </row>
@@ -15204,13 +14566,13 @@
       <c r="A71" s="111" t="s">
         <v>86</v>
       </c>
-      <c r="B71" s="127">
+      <c r="B71" s="124">
         <v>0.57599999999999996</v>
       </c>
-      <c r="C71" s="127">
+      <c r="C71" s="124">
         <v>0.63900000000000001</v>
       </c>
-      <c r="D71" s="127">
+      <c r="D71" s="124">
         <v>0.67800000000000005</v>
       </c>
     </row>
@@ -15218,13 +14580,13 @@
       <c r="A72" s="113" t="s">
         <v>87</v>
       </c>
-      <c r="B72" s="128">
+      <c r="B72" s="125">
         <v>30</v>
       </c>
-      <c r="C72" s="128">
+      <c r="C72" s="125">
         <v>433.86899999999901</v>
       </c>
-      <c r="D72" s="128">
+      <c r="D72" s="125">
         <v>1109.873</v>
       </c>
     </row>
@@ -15266,23 +14628,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="33" customHeight="1">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="129" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="134"/>
+      <c r="B1" s="129"/>
     </row>
     <row r="2" spans="1:4" ht="39" customHeight="1">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="132"/>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="47"/>
-      <c r="B3" s="133"/>
-      <c r="C3" s="133"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
       <c r="D3" s="48" t="s">
         <v>20</v>
       </c>
@@ -15684,7 +15046,7 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15697,294 +15059,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" s="50" customFormat="1" ht="33" customHeight="1">
-      <c r="A1" s="134" t="s">
-        <v>152</v>
-      </c>
-      <c r="B1" s="134"/>
-    </row>
-    <row r="2" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A2" s="138" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="138"/>
-      <c r="L2" s="138"/>
-      <c r="M2" s="138"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75">
-      <c r="A3" s="86"/>
-      <c r="B3" s="87"/>
-      <c r="D3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="M3" s="88" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="142"/>
-      <c r="B4" s="144">
-        <v>2022</v>
-      </c>
-      <c r="C4" s="144"/>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="144"/>
-      <c r="I4" s="144"/>
-      <c r="J4" s="144"/>
-      <c r="K4" s="144"/>
-      <c r="L4" s="144"/>
-      <c r="M4" s="144"/>
-    </row>
-    <row r="5" spans="1:13" ht="34.5" customHeight="1">
-      <c r="A5" s="143"/>
-      <c r="B5" s="122" t="s">
-        <v>173</v>
-      </c>
-      <c r="C5" s="122" t="s">
-        <v>174</v>
-      </c>
-      <c r="D5" s="122" t="s">
-        <v>175</v>
-      </c>
-      <c r="E5" s="122" t="s">
-        <v>176</v>
-      </c>
-      <c r="F5" s="122" t="s">
-        <v>181</v>
-      </c>
-      <c r="G5" s="122" t="s">
-        <v>182</v>
-      </c>
-      <c r="H5" s="122" t="s">
-        <v>183</v>
-      </c>
-      <c r="I5" s="122" t="s">
-        <v>178</v>
-      </c>
-      <c r="J5" s="122" t="s">
-        <v>179</v>
-      </c>
-      <c r="K5" s="122" t="s">
-        <v>180</v>
-      </c>
-      <c r="L5" s="122" t="s">
-        <v>185</v>
-      </c>
-      <c r="M5" s="122" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="123" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="124">
-        <v>0.66519746832233972</v>
-      </c>
-      <c r="C6" s="124">
-        <v>1.1746643394711254</v>
-      </c>
-      <c r="D6" s="124">
-        <v>1.414363</v>
-      </c>
-      <c r="E6" s="124">
-        <v>1.8628936480487335</v>
-      </c>
-      <c r="F6" s="124">
-        <v>2.6097694780052989</v>
-      </c>
-      <c r="G6" s="124">
-        <v>3.6513840000000002</v>
-      </c>
-      <c r="H6" s="124">
-        <v>4.6650565750254787</v>
-      </c>
-      <c r="I6" s="124">
-        <v>5.7548892679349732</v>
-      </c>
-      <c r="J6" s="124">
-        <v>6.8079830000000001</v>
-      </c>
-      <c r="K6" s="124">
-        <v>7.323009936633059</v>
-      </c>
-      <c r="L6" s="124">
-        <v>7.7607592971766763</v>
-      </c>
-      <c r="M6" s="124">
-        <v>8.2425100000000011</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A7" s="87"/>
-      <c r="B7" s="87"/>
-      <c r="M7" s="129"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="L8" s="129"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="A2:M2"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Содержание!A1" display="          К содержанию"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" s="50" customFormat="1" ht="33" customHeight="1">
-      <c r="A1" s="134" t="s">
-        <v>152</v>
-      </c>
-      <c r="B1" s="134"/>
-    </row>
-    <row r="2" spans="1:13" ht="54" customHeight="1">
-      <c r="A2" s="138" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75">
-      <c r="A3" s="86"/>
-      <c r="C3" s="88" t="s">
-        <v>172</v>
-      </c>
-      <c r="D3" s="88"/>
-      <c r="F3" s="88"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="142"/>
-      <c r="B4" s="144">
-        <v>2023</v>
-      </c>
-      <c r="C4" s="144"/>
-    </row>
-    <row r="5" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A5" s="143"/>
-      <c r="B5" s="122" t="s">
-        <v>173</v>
-      </c>
-      <c r="C5" s="122" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="123" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="124">
-        <v>0.49</v>
-      </c>
-      <c r="C6" s="124">
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A7" s="87"/>
-      <c r="B7" s="87"/>
-      <c r="C7" s="129"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A2:C2"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Содержание!A1" display="          К содержанию"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15994,17 +15076,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1">
-      <c r="A1" s="134"/>
-      <c r="B1" s="134"/>
+      <c r="A1" s="129"/>
+      <c r="B1" s="129"/>
     </row>
     <row r="2" spans="1:5" ht="39" customHeight="1">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
     </row>
     <row r="3" spans="1:5" ht="15.75">
       <c r="A3" s="8"/>
@@ -16061,7 +15143,7 @@
         <v>76</v>
       </c>
       <c r="B7" s="14">
-        <v>1457</v>
+        <v>8912</v>
       </c>
       <c r="C7" s="14">
         <v>3753</v>
@@ -16078,7 +15160,7 @@
         <v>50</v>
       </c>
       <c r="B8" s="14">
-        <v>1204</v>
+        <v>4711</v>
       </c>
       <c r="C8" s="14">
         <v>2356</v>
@@ -16095,7 +15177,7 @@
         <v>62</v>
       </c>
       <c r="B9" s="14">
-        <v>415</v>
+        <v>1725</v>
       </c>
       <c r="C9" s="14">
         <v>843</v>
@@ -16112,7 +15194,7 @@
         <v>77</v>
       </c>
       <c r="B10" s="14">
-        <v>324</v>
+        <v>1416</v>
       </c>
       <c r="C10" s="14">
         <v>687</v>
@@ -16129,7 +15211,7 @@
         <v>53</v>
       </c>
       <c r="B11" s="14">
-        <v>135</v>
+        <v>1122</v>
       </c>
       <c r="C11" s="14">
         <v>422</v>
@@ -16146,7 +15228,7 @@
         <v>30</v>
       </c>
       <c r="B12" s="14">
-        <v>170</v>
+        <v>856</v>
       </c>
       <c r="C12" s="14">
         <v>373</v>
@@ -16163,7 +15245,7 @@
         <v>75</v>
       </c>
       <c r="B13" s="14">
-        <v>97</v>
+        <v>797</v>
       </c>
       <c r="C13" s="14">
         <v>362</v>
@@ -16180,7 +15262,7 @@
         <v>39</v>
       </c>
       <c r="B14" s="14">
-        <v>59</v>
+        <v>553</v>
       </c>
       <c r="C14" s="14">
         <v>222</v>
@@ -16197,7 +15279,7 @@
         <v>32</v>
       </c>
       <c r="B15" s="14">
-        <v>103</v>
+        <v>552</v>
       </c>
       <c r="C15" s="14">
         <v>228</v>
@@ -16214,7 +15296,7 @@
         <v>65</v>
       </c>
       <c r="B16" s="14">
-        <v>70</v>
+        <v>491</v>
       </c>
       <c r="C16" s="14">
         <v>203</v>
@@ -16231,7 +15313,7 @@
         <v>72</v>
       </c>
       <c r="B17" s="14">
-        <v>75</v>
+        <v>458</v>
       </c>
       <c r="C17" s="14">
         <v>199</v>
@@ -16248,7 +15330,7 @@
         <v>27</v>
       </c>
       <c r="B18" s="14">
-        <v>93</v>
+        <v>417</v>
       </c>
       <c r="C18" s="14">
         <v>191</v>
@@ -16265,7 +15347,7 @@
         <v>59</v>
       </c>
       <c r="B19" s="14">
-        <v>82</v>
+        <v>378</v>
       </c>
       <c r="C19" s="14">
         <v>171</v>
@@ -16282,7 +15364,7 @@
         <v>52</v>
       </c>
       <c r="B20" s="14">
-        <v>24</v>
+        <v>374</v>
       </c>
       <c r="C20" s="14">
         <v>132</v>
@@ -16299,7 +15381,7 @@
         <v>83</v>
       </c>
       <c r="B21" s="14">
-        <v>70</v>
+        <v>357</v>
       </c>
       <c r="C21" s="14">
         <v>161</v>
@@ -16316,7 +15398,7 @@
         <v>56</v>
       </c>
       <c r="B22" s="14">
-        <v>61</v>
+        <v>278</v>
       </c>
       <c r="C22" s="14">
         <v>134</v>
@@ -16333,7 +15415,7 @@
         <v>33</v>
       </c>
       <c r="B23" s="14">
-        <v>25</v>
+        <v>249</v>
       </c>
       <c r="C23" s="14">
         <v>94</v>
@@ -16350,7 +15432,7 @@
         <v>74</v>
       </c>
       <c r="B24" s="14">
-        <v>48</v>
+        <v>239</v>
       </c>
       <c r="C24" s="14">
         <v>114</v>
@@ -16367,7 +15449,7 @@
         <v>57</v>
       </c>
       <c r="B25" s="14">
-        <v>51</v>
+        <v>237</v>
       </c>
       <c r="C25" s="14">
         <v>108</v>
@@ -16384,7 +15466,7 @@
         <v>71</v>
       </c>
       <c r="B26" s="14">
-        <v>22</v>
+        <v>233</v>
       </c>
       <c r="C26" s="14">
         <v>97</v>
@@ -16401,7 +15483,7 @@
         <v>49</v>
       </c>
       <c r="B27" s="14">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="C27" s="14">
         <v>80</v>
@@ -16418,7 +15500,7 @@
         <v>105</v>
       </c>
       <c r="B28" s="14">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="C28" s="14">
         <v>80</v>
@@ -16435,7 +15517,7 @@
         <v>78</v>
       </c>
       <c r="B29" s="14">
-        <v>29</v>
+        <v>171</v>
       </c>
       <c r="C29" s="14">
         <v>83</v>
@@ -16452,7 +15534,7 @@
         <v>44</v>
       </c>
       <c r="B30" s="14">
-        <v>25</v>
+        <v>162</v>
       </c>
       <c r="C30" s="14">
         <v>65</v>
@@ -16469,7 +15551,7 @@
         <v>106</v>
       </c>
       <c r="B31" s="14">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="C31" s="14">
         <v>53</v>
@@ -16486,7 +15568,7 @@
         <v>87</v>
       </c>
       <c r="B32" s="18">
-        <v>204</v>
+        <v>1655</v>
       </c>
       <c r="C32" s="18">
         <v>678</v>
@@ -16523,10 +15605,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16538,19 +15620,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33" customHeight="1">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="129" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="134"/>
+      <c r="B1" s="129"/>
     </row>
     <row r="2" spans="1:8" ht="39" customHeight="1">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
     </row>
     <row r="3" spans="1:8" ht="15.75">
       <c r="A3" s="8"/>
@@ -16604,16 +15686,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="14">
-        <v>94.858000000000004</v>
+        <v>410.56599999999997</v>
       </c>
       <c r="C7" s="14">
         <v>190.88800000000001</v>
       </c>
       <c r="D7" s="14">
         <v>299.33999999999997</v>
-      </c>
-      <c r="E7" s="14">
-        <v>410.56599999999997</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -16623,16 +15702,13 @@
         <v>28</v>
       </c>
       <c r="B8" s="14">
-        <v>2.3119999999999998</v>
+        <v>41.881999999999998</v>
       </c>
       <c r="C8" s="14">
         <v>16</v>
       </c>
       <c r="D8" s="14">
         <v>38</v>
-      </c>
-      <c r="E8" s="14">
-        <v>41.881999999999998</v>
       </c>
       <c r="F8" s="16"/>
     </row>
@@ -16641,16 +15717,13 @@
         <v>29</v>
       </c>
       <c r="B9" s="14">
-        <v>6.9640000000000004</v>
+        <v>49.026000000000003</v>
       </c>
       <c r="C9" s="14">
         <v>21</v>
       </c>
       <c r="D9" s="14">
         <v>39</v>
-      </c>
-      <c r="E9" s="14">
-        <v>49.026000000000003</v>
       </c>
       <c r="F9" s="16"/>
     </row>
@@ -16659,16 +15732,13 @@
         <v>30</v>
       </c>
       <c r="B10" s="14">
-        <v>216.04400000000001</v>
+        <v>898.42600000000004</v>
       </c>
       <c r="C10" s="14">
         <v>440.84800000000001</v>
       </c>
       <c r="D10" s="14">
         <v>690.40300000000002</v>
-      </c>
-      <c r="E10" s="14">
-        <v>898.42600000000004</v>
       </c>
       <c r="F10" s="16"/>
     </row>
@@ -16677,16 +15747,13 @@
         <v>31</v>
       </c>
       <c r="B11" s="14">
-        <v>1.323</v>
+        <v>19.3</v>
       </c>
       <c r="C11" s="14">
         <v>7</v>
       </c>
       <c r="D11" s="14">
         <v>17</v>
-      </c>
-      <c r="E11" s="14">
-        <v>19.3</v>
       </c>
       <c r="F11" s="16"/>
       <c r="H11" s="16"/>
@@ -16696,16 +15763,13 @@
         <v>32</v>
       </c>
       <c r="B12" s="14">
-        <v>128.321</v>
+        <v>596.04100000000005</v>
       </c>
       <c r="C12" s="14">
         <v>282.99400000000003</v>
       </c>
       <c r="D12" s="14">
         <v>459.59300000000002</v>
-      </c>
-      <c r="E12" s="14">
-        <v>596.04100000000005</v>
       </c>
       <c r="F12" s="16"/>
     </row>
@@ -16714,16 +15778,13 @@
         <v>33</v>
       </c>
       <c r="B13" s="14">
-        <v>12.936999999999999</v>
+        <v>133.74</v>
       </c>
       <c r="C13" s="14">
         <v>49.231999999999999</v>
       </c>
       <c r="D13" s="14">
         <v>90.466999999999999</v>
-      </c>
-      <c r="E13" s="14">
-        <v>133.74</v>
       </c>
       <c r="F13" s="16"/>
     </row>
@@ -16732,16 +15793,13 @@
         <v>34</v>
       </c>
       <c r="B14" s="14">
-        <v>5.1150000000000002</v>
+        <v>34.552999999999997</v>
       </c>
       <c r="C14" s="14">
         <v>16</v>
       </c>
       <c r="D14" s="14">
         <v>28</v>
-      </c>
-      <c r="E14" s="14">
-        <v>34.552999999999997</v>
       </c>
       <c r="F14" s="16"/>
     </row>
@@ -16750,16 +15808,13 @@
         <v>35</v>
       </c>
       <c r="B15" s="14">
-        <v>4.1440000000000001</v>
+        <v>26.562999999999999</v>
       </c>
       <c r="C15" s="14">
         <v>12</v>
       </c>
       <c r="D15" s="14">
         <v>21</v>
-      </c>
-      <c r="E15" s="14">
-        <v>26.562999999999999</v>
       </c>
       <c r="F15" s="16"/>
     </row>
@@ -16768,16 +15823,13 @@
         <v>36</v>
       </c>
       <c r="B16" s="14">
-        <v>2.6059999999999999</v>
+        <v>27.177</v>
       </c>
       <c r="C16" s="14">
         <v>11</v>
       </c>
       <c r="D16" s="14">
         <v>23</v>
-      </c>
-      <c r="E16" s="14">
-        <v>27.177</v>
       </c>
       <c r="F16" s="16"/>
     </row>
@@ -16786,16 +15838,13 @@
         <v>37</v>
       </c>
       <c r="B17" s="14">
-        <v>3.06</v>
+        <v>20.754999999999999</v>
       </c>
       <c r="C17" s="14">
         <v>10</v>
       </c>
       <c r="D17" s="14">
         <v>17</v>
-      </c>
-      <c r="E17" s="14">
-        <v>20.754999999999999</v>
       </c>
       <c r="F17" s="16"/>
     </row>
@@ -16804,16 +15853,13 @@
         <v>38</v>
       </c>
       <c r="B18" s="14">
-        <v>6.0819999999999999</v>
+        <v>36.290999999999997</v>
       </c>
       <c r="C18" s="14">
         <v>18</v>
       </c>
       <c r="D18" s="14">
         <v>30</v>
-      </c>
-      <c r="E18" s="14">
-        <v>36.290999999999997</v>
       </c>
       <c r="F18" s="16"/>
     </row>
@@ -16822,16 +15868,13 @@
         <v>39</v>
       </c>
       <c r="B19" s="14">
-        <v>57.137999999999998</v>
+        <v>566.43399999999997</v>
       </c>
       <c r="C19" s="14">
         <v>225.852</v>
       </c>
       <c r="D19" s="14">
         <v>479.44</v>
-      </c>
-      <c r="E19" s="14">
-        <v>566.43399999999997</v>
       </c>
       <c r="F19" s="16"/>
     </row>
@@ -16840,16 +15883,13 @@
         <v>40</v>
       </c>
       <c r="B20" s="14">
-        <v>4.3819999999999997</v>
+        <v>27.077999999999999</v>
       </c>
       <c r="C20" s="14">
         <v>11</v>
       </c>
       <c r="D20" s="14">
         <v>21</v>
-      </c>
-      <c r="E20" s="14">
-        <v>27.077999999999999</v>
       </c>
       <c r="F20" s="16"/>
     </row>
@@ -16858,16 +15898,13 @@
         <v>41</v>
       </c>
       <c r="B21" s="14">
-        <v>10.988</v>
+        <v>65.335999999999999</v>
       </c>
       <c r="C21" s="14">
         <v>27</v>
       </c>
       <c r="D21" s="14">
         <v>46</v>
-      </c>
-      <c r="E21" s="14">
-        <v>65.335999999999999</v>
       </c>
       <c r="F21" s="16"/>
     </row>
@@ -16876,16 +15913,13 @@
         <v>42</v>
       </c>
       <c r="B22" s="14">
-        <v>3.0419999999999998</v>
+        <v>19.364999999999998</v>
       </c>
       <c r="C22" s="14">
         <v>9</v>
       </c>
       <c r="D22" s="14">
         <v>16</v>
-      </c>
-      <c r="E22" s="14">
-        <v>19.364999999999998</v>
       </c>
       <c r="F22" s="16"/>
     </row>
@@ -16894,16 +15928,13 @@
         <v>43</v>
       </c>
       <c r="B23" s="14">
-        <v>1.7190000000000001</v>
+        <v>10.596</v>
       </c>
       <c r="C23" s="14">
         <v>4</v>
       </c>
       <c r="D23" s="14">
         <v>8</v>
-      </c>
-      <c r="E23" s="14">
-        <v>10.596</v>
       </c>
       <c r="F23" s="16"/>
     </row>
@@ -16912,16 +15943,13 @@
         <v>44</v>
       </c>
       <c r="B24" s="14">
-        <v>22.535</v>
+        <v>178.63300000000001</v>
       </c>
       <c r="C24" s="14">
         <v>68.341999999999999</v>
       </c>
       <c r="D24" s="14">
         <v>141.84399999999999</v>
-      </c>
-      <c r="E24" s="14">
-        <v>178.63300000000001</v>
       </c>
       <c r="F24" s="16"/>
     </row>
@@ -16930,16 +15958,13 @@
         <v>45</v>
       </c>
       <c r="B25" s="14">
-        <v>2.883</v>
+        <v>59</v>
       </c>
       <c r="C25" s="14">
         <v>24</v>
       </c>
       <c r="D25" s="14">
         <v>47</v>
-      </c>
-      <c r="E25" s="14">
-        <v>59</v>
       </c>
       <c r="F25" s="16"/>
     </row>
@@ -16948,16 +15973,13 @@
         <v>46</v>
       </c>
       <c r="B26" s="14">
-        <v>1.6539999999999999</v>
+        <v>11</v>
       </c>
       <c r="C26" s="14">
         <v>5</v>
       </c>
       <c r="D26" s="14">
         <v>9</v>
-      </c>
-      <c r="E26" s="14">
-        <v>11</v>
       </c>
       <c r="F26" s="16"/>
     </row>
@@ -16966,16 +15988,13 @@
         <v>47</v>
       </c>
       <c r="B27" s="14">
-        <v>3.798</v>
+        <v>70</v>
       </c>
       <c r="C27" s="14">
         <v>14</v>
       </c>
       <c r="D27" s="14">
         <v>65</v>
-      </c>
-      <c r="E27" s="14">
-        <v>70</v>
       </c>
       <c r="F27" s="16"/>
     </row>
@@ -16984,16 +16003,13 @@
         <v>48</v>
       </c>
       <c r="B28" s="14">
-        <v>8.7159999999999993</v>
+        <v>108.9</v>
       </c>
       <c r="C28" s="14">
         <v>32.417999999999999</v>
       </c>
       <c r="D28" s="14">
         <v>96.766000000000005</v>
-      </c>
-      <c r="E28" s="14">
-        <v>108.9</v>
       </c>
       <c r="F28" s="16"/>
     </row>
@@ -17002,16 +16018,13 @@
         <v>49</v>
       </c>
       <c r="B29" s="14">
-        <v>28.07</v>
+        <v>192.14</v>
       </c>
       <c r="C29" s="14">
         <v>82.572000000000003</v>
       </c>
       <c r="D29" s="14">
         <v>156.56800000000001</v>
-      </c>
-      <c r="E29" s="14">
-        <v>192.14</v>
       </c>
       <c r="F29" s="16"/>
     </row>
@@ -17020,16 +16033,13 @@
         <v>50</v>
       </c>
       <c r="B30" s="14">
-        <v>674.42899999999997</v>
+        <v>3564.152</v>
       </c>
       <c r="C30" s="14">
         <v>1606.8320000000001</v>
       </c>
       <c r="D30" s="14">
         <v>2771.82</v>
-      </c>
-      <c r="E30" s="14">
-        <v>3564.152</v>
       </c>
       <c r="F30" s="16"/>
     </row>
@@ -17038,16 +16048,13 @@
         <v>51</v>
       </c>
       <c r="B31" s="14">
-        <v>2.9809999999999999</v>
+        <v>40.409999999999997</v>
       </c>
       <c r="C31" s="14">
         <v>18</v>
       </c>
       <c r="D31" s="14">
         <v>37</v>
-      </c>
-      <c r="E31" s="14">
-        <v>40.409999999999997</v>
       </c>
       <c r="F31" s="16"/>
     </row>
@@ -17056,16 +16063,13 @@
         <v>52</v>
       </c>
       <c r="B32" s="14">
-        <v>62.679000000000002</v>
+        <v>397.84199999999998</v>
       </c>
       <c r="C32" s="14">
         <v>163.74199999999999</v>
       </c>
       <c r="D32" s="14">
         <v>293.13200000000001</v>
-      </c>
-      <c r="E32" s="14">
-        <v>397.84199999999998</v>
       </c>
       <c r="F32" s="16"/>
     </row>
@@ -17074,16 +16078,13 @@
         <v>53</v>
       </c>
       <c r="B33" s="14">
-        <v>138.68299999999999</v>
+        <v>1288.72</v>
       </c>
       <c r="C33" s="14">
         <v>457.94200000000001</v>
       </c>
       <c r="D33" s="14">
         <v>1071.585</v>
-      </c>
-      <c r="E33" s="14">
-        <v>1288.72</v>
       </c>
       <c r="F33" s="16"/>
     </row>
@@ -17092,16 +16093,13 @@
         <v>54</v>
       </c>
       <c r="B34" s="14">
-        <v>0.746</v>
+        <v>9.6920000000000002</v>
       </c>
       <c r="C34" s="14">
         <v>4</v>
       </c>
       <c r="D34" s="14">
         <v>8</v>
-      </c>
-      <c r="E34" s="14">
-        <v>9.6920000000000002</v>
       </c>
       <c r="F34" s="16"/>
     </row>
@@ -17110,16 +16108,13 @@
         <v>55</v>
       </c>
       <c r="B35" s="14">
-        <v>4.4119999999999999</v>
+        <v>26.059000000000001</v>
       </c>
       <c r="C35" s="14">
         <v>13</v>
       </c>
       <c r="D35" s="14">
         <v>20</v>
-      </c>
-      <c r="E35" s="14">
-        <v>26.059000000000001</v>
       </c>
       <c r="F35" s="16"/>
     </row>
@@ -17128,16 +16123,13 @@
         <v>56</v>
       </c>
       <c r="B36" s="14">
-        <v>60.048000000000002</v>
+        <v>288.68200000000002</v>
       </c>
       <c r="C36" s="14">
         <v>137.95400000000001</v>
       </c>
       <c r="D36" s="14">
         <v>220.35900000000001</v>
-      </c>
-      <c r="E36" s="14">
-        <v>288.68200000000002</v>
       </c>
       <c r="F36" s="16"/>
     </row>
@@ -17146,16 +16138,13 @@
         <v>57</v>
       </c>
       <c r="B37" s="14">
-        <v>55.643000000000001</v>
+        <v>249.095</v>
       </c>
       <c r="C37" s="14">
         <v>121.04600000000001</v>
       </c>
       <c r="D37" s="14">
         <v>188.441</v>
-      </c>
-      <c r="E37" s="14">
-        <v>249.095</v>
       </c>
       <c r="F37" s="16"/>
     </row>
@@ -17164,16 +16153,13 @@
         <v>58</v>
       </c>
       <c r="B38" s="14">
-        <v>1.1259999999999999</v>
+        <v>20.187999999999999</v>
       </c>
       <c r="C38" s="14">
         <v>7</v>
       </c>
       <c r="D38" s="14">
         <v>18</v>
-      </c>
-      <c r="E38" s="14">
-        <v>20.187999999999999</v>
       </c>
       <c r="F38" s="16"/>
     </row>
@@ -17182,16 +16168,13 @@
         <v>59</v>
       </c>
       <c r="B39" s="14">
-        <v>118.999</v>
+        <v>522.02599999999995</v>
       </c>
       <c r="C39" s="14">
         <v>263.18799999999999</v>
       </c>
       <c r="D39" s="14">
         <v>414.524</v>
-      </c>
-      <c r="E39" s="14">
-        <v>522.02599999999995</v>
       </c>
       <c r="F39" s="16"/>
     </row>
@@ -17200,16 +16183,13 @@
         <v>60</v>
       </c>
       <c r="B40" s="14">
-        <v>9.3010000000000002</v>
+        <v>57.408000000000001</v>
       </c>
       <c r="C40" s="14">
         <v>26</v>
       </c>
       <c r="D40" s="14">
         <v>45</v>
-      </c>
-      <c r="E40" s="14">
-        <v>57.408000000000001</v>
       </c>
       <c r="F40" s="16"/>
     </row>
@@ -17218,16 +16198,13 @@
         <v>61</v>
       </c>
       <c r="B41" s="14">
-        <v>8.6159999999999997</v>
+        <v>45.134999999999998</v>
       </c>
       <c r="C41" s="14">
         <v>21</v>
       </c>
       <c r="D41" s="14">
         <v>34</v>
-      </c>
-      <c r="E41" s="14">
-        <v>45.134999999999998</v>
       </c>
       <c r="F41" s="16"/>
     </row>
@@ -17236,16 +16213,13 @@
         <v>62</v>
       </c>
       <c r="B42" s="14">
-        <v>368.81799999999998</v>
+        <v>1017.462</v>
       </c>
       <c r="C42" s="14">
         <v>731.37</v>
       </c>
       <c r="D42" s="14">
         <v>835.42700000000002</v>
-      </c>
-      <c r="E42" s="14">
-        <v>1017.462</v>
       </c>
       <c r="F42" s="16"/>
     </row>
@@ -17254,16 +16228,13 @@
         <v>63</v>
       </c>
       <c r="B43" s="14">
-        <v>1.964</v>
+        <v>14.673999999999999</v>
       </c>
       <c r="C43" s="14">
         <v>6</v>
       </c>
       <c r="D43" s="14">
         <v>13</v>
-      </c>
-      <c r="E43" s="14">
-        <v>14.673999999999999</v>
       </c>
       <c r="F43" s="16"/>
     </row>
@@ -17272,16 +16243,13 @@
         <v>64</v>
       </c>
       <c r="B44" s="14">
-        <v>17.507999999999999</v>
+        <v>161</v>
       </c>
       <c r="C44" s="14">
         <v>67.539000000000001</v>
       </c>
       <c r="D44" s="14">
         <v>137.876</v>
-      </c>
-      <c r="E44" s="14">
-        <v>161</v>
       </c>
       <c r="F44" s="16"/>
     </row>
@@ -17290,16 +16258,13 @@
         <v>65</v>
       </c>
       <c r="B45" s="14">
-        <v>82.653999999999996</v>
+        <v>409</v>
       </c>
       <c r="C45" s="14">
         <v>184.607</v>
       </c>
       <c r="D45" s="14">
         <v>302.28699999999998</v>
-      </c>
-      <c r="E45" s="14">
-        <v>409</v>
       </c>
       <c r="F45" s="16"/>
     </row>
@@ -17308,16 +16273,13 @@
         <v>66</v>
       </c>
       <c r="B46" s="14">
-        <v>2.2549999999999999</v>
+        <v>14.582000000000001</v>
       </c>
       <c r="C46" s="14">
         <v>7</v>
       </c>
       <c r="D46" s="14">
         <v>12</v>
-      </c>
-      <c r="E46" s="14">
-        <v>14.582000000000001</v>
       </c>
       <c r="F46" s="16"/>
     </row>
@@ -17326,16 +16288,13 @@
         <v>67</v>
       </c>
       <c r="B47" s="14">
-        <v>10.528</v>
+        <v>50.497999999999998</v>
       </c>
       <c r="C47" s="14">
         <v>24</v>
       </c>
       <c r="D47" s="14">
         <v>38</v>
-      </c>
-      <c r="E47" s="14">
-        <v>50.497999999999998</v>
       </c>
       <c r="F47" s="16"/>
     </row>
@@ -17344,16 +16303,13 @@
         <v>68</v>
       </c>
       <c r="B48" s="14">
-        <v>3.2730000000000001</v>
+        <v>20.745000000000001</v>
       </c>
       <c r="C48" s="14">
         <v>10</v>
       </c>
       <c r="D48" s="14">
         <v>17</v>
-      </c>
-      <c r="E48" s="14">
-        <v>20.745000000000001</v>
       </c>
       <c r="F48" s="16"/>
     </row>
@@ -17362,16 +16318,13 @@
         <v>69</v>
       </c>
       <c r="B49" s="14">
-        <v>1.829</v>
+        <v>8.9420000000000002</v>
       </c>
       <c r="C49" s="14">
         <v>5</v>
       </c>
       <c r="D49" s="14">
         <v>7</v>
-      </c>
-      <c r="E49" s="14">
-        <v>8.9420000000000002</v>
       </c>
       <c r="F49" s="16"/>
     </row>
@@ -17380,16 +16333,13 @@
         <v>70</v>
       </c>
       <c r="B50" s="14">
-        <v>20.571999999999999</v>
+        <v>177</v>
       </c>
       <c r="C50" s="14">
         <v>79.596999999999994</v>
       </c>
       <c r="D50" s="14">
         <v>151.892</v>
-      </c>
-      <c r="E50" s="14">
-        <v>177</v>
       </c>
       <c r="F50" s="16"/>
     </row>
@@ -17398,16 +16348,13 @@
         <v>71</v>
       </c>
       <c r="B51" s="14">
-        <v>20.277000000000001</v>
+        <v>239</v>
       </c>
       <c r="C51" s="14">
         <v>103.226</v>
       </c>
       <c r="D51" s="14">
         <v>212.60300000000001</v>
-      </c>
-      <c r="E51" s="14">
-        <v>239</v>
       </c>
       <c r="F51" s="16"/>
     </row>
@@ -17416,16 +16363,13 @@
         <v>72</v>
       </c>
       <c r="B52" s="14">
-        <v>91.962000000000003</v>
+        <v>410.01299999999998</v>
       </c>
       <c r="C52" s="14">
         <v>223.97800000000001</v>
       </c>
       <c r="D52" s="14">
         <v>362.61799999999999</v>
-      </c>
-      <c r="E52" s="14">
-        <v>410.01299999999998</v>
       </c>
       <c r="F52" s="16"/>
     </row>
@@ -17434,16 +16378,13 @@
         <v>73</v>
       </c>
       <c r="B53" s="14">
-        <v>2.16</v>
+        <v>28.446000000000002</v>
       </c>
       <c r="C53" s="14">
         <v>12</v>
       </c>
       <c r="D53" s="14">
         <v>21</v>
-      </c>
-      <c r="E53" s="14">
-        <v>28.446000000000002</v>
       </c>
       <c r="F53" s="16"/>
     </row>
@@ -17452,16 +16393,13 @@
         <v>74</v>
       </c>
       <c r="B54" s="14">
-        <v>5.8579999999999997</v>
+        <v>42.658000000000001</v>
       </c>
       <c r="C54" s="14">
         <v>15</v>
       </c>
       <c r="D54" s="14">
         <v>29</v>
-      </c>
-      <c r="E54" s="14">
-        <v>42.658000000000001</v>
       </c>
       <c r="F54" s="16"/>
     </row>
@@ -17470,16 +16408,13 @@
         <v>75</v>
       </c>
       <c r="B55" s="14">
-        <v>99.831000000000003</v>
+        <v>596.52</v>
       </c>
       <c r="C55" s="14">
         <v>304.04599999999999</v>
       </c>
       <c r="D55" s="14">
         <v>521.78300000000002</v>
-      </c>
-      <c r="E55" s="14">
-        <v>596.52</v>
       </c>
       <c r="F55" s="16"/>
     </row>
@@ -17488,16 +16423,13 @@
         <v>76</v>
       </c>
       <c r="B56" s="14">
-        <v>1458.348</v>
+        <v>8569.2639999999992</v>
       </c>
       <c r="C56" s="14">
         <v>3781.7429999999999</v>
       </c>
       <c r="D56" s="14">
         <v>6805.2380000000003</v>
-      </c>
-      <c r="E56" s="14">
-        <v>8569.2639999999992</v>
       </c>
       <c r="F56" s="16"/>
     </row>
@@ -17506,16 +16438,13 @@
         <v>77</v>
       </c>
       <c r="B57" s="14">
-        <v>316.875</v>
+        <v>1319.03</v>
       </c>
       <c r="C57" s="14">
         <v>700.20899999999995</v>
       </c>
       <c r="D57" s="14">
         <v>1052.3230000000001</v>
-      </c>
-      <c r="E57" s="14">
-        <v>1319.03</v>
       </c>
       <c r="F57" s="16"/>
     </row>
@@ -17524,16 +16453,13 @@
         <v>78</v>
       </c>
       <c r="B58" s="14">
-        <v>29.829000000000001</v>
+        <v>176.85499999999999</v>
       </c>
       <c r="C58" s="14">
         <v>86.361999999999995</v>
       </c>
       <c r="D58" s="14">
         <v>142.761</v>
-      </c>
-      <c r="E58" s="14">
-        <v>176.85499999999999</v>
       </c>
       <c r="F58" s="16"/>
     </row>
@@ -17542,16 +16468,13 @@
         <v>79</v>
       </c>
       <c r="B59" s="14">
-        <v>1.7849999999999999</v>
+        <v>9.1460000000000008</v>
       </c>
       <c r="C59" s="14">
         <v>4</v>
       </c>
       <c r="D59" s="14">
         <v>7</v>
-      </c>
-      <c r="E59" s="14">
-        <v>9.1460000000000008</v>
       </c>
       <c r="F59" s="16"/>
     </row>
@@ -17560,16 +16483,13 @@
         <v>80</v>
       </c>
       <c r="B60" s="14">
-        <v>7.1260000000000003</v>
+        <v>39.683999999999997</v>
       </c>
       <c r="C60" s="14">
         <v>19</v>
       </c>
       <c r="D60" s="14">
         <v>31</v>
-      </c>
-      <c r="E60" s="14">
-        <v>39.683999999999997</v>
       </c>
       <c r="F60" s="16"/>
     </row>
@@ -17578,16 +16498,13 @@
         <v>81</v>
       </c>
       <c r="B61" s="14">
-        <v>6.3410000000000002</v>
+        <v>48.484999999999999</v>
       </c>
       <c r="C61" s="14">
         <v>21</v>
       </c>
       <c r="D61" s="14">
         <v>41</v>
-      </c>
-      <c r="E61" s="14">
-        <v>48.484999999999999</v>
       </c>
       <c r="F61" s="16"/>
     </row>
@@ -17596,16 +16513,13 @@
         <v>82</v>
       </c>
       <c r="B62" s="14">
-        <v>5.8860000000000001</v>
+        <v>35.645000000000003</v>
       </c>
       <c r="C62" s="14">
         <v>17</v>
       </c>
       <c r="D62" s="14">
         <v>28</v>
-      </c>
-      <c r="E62" s="14">
-        <v>35.645000000000003</v>
       </c>
       <c r="F62" s="16"/>
     </row>
@@ -17614,16 +16528,13 @@
         <v>83</v>
       </c>
       <c r="B63" s="14">
-        <v>80.587000000000003</v>
+        <v>414.14699999999999</v>
       </c>
       <c r="C63" s="14">
         <v>188.62200000000001</v>
       </c>
       <c r="D63" s="14">
         <v>309.49099999999999</v>
-      </c>
-      <c r="E63" s="14">
-        <v>414.14699999999999</v>
       </c>
       <c r="F63" s="16"/>
     </row>
@@ -17632,16 +16543,13 @@
         <v>84</v>
       </c>
       <c r="B64" s="14">
-        <v>20.363</v>
+        <v>111.37</v>
       </c>
       <c r="C64" s="14">
         <v>49</v>
       </c>
       <c r="D64" s="14">
         <v>81</v>
-      </c>
-      <c r="E64" s="14">
-        <v>111.37</v>
       </c>
       <c r="F64" s="16"/>
     </row>
@@ -17650,16 +16558,13 @@
         <v>85</v>
       </c>
       <c r="B65" s="14">
-        <v>0.67400000000000004</v>
+        <v>7</v>
       </c>
       <c r="C65" s="14">
         <v>3</v>
       </c>
       <c r="D65" s="14">
         <v>6</v>
-      </c>
-      <c r="E65" s="14">
-        <v>7</v>
       </c>
       <c r="F65" s="16"/>
     </row>
@@ -17668,16 +16573,13 @@
         <v>86</v>
       </c>
       <c r="B66" s="14">
-        <v>11.847</v>
+        <v>84.631</v>
       </c>
       <c r="C66" s="14">
         <v>35</v>
       </c>
       <c r="D66" s="14">
         <v>69</v>
-      </c>
-      <c r="E66" s="14">
-        <v>84.631</v>
       </c>
       <c r="F66" s="16"/>
     </row>
@@ -17686,16 +16588,13 @@
         <v>87</v>
       </c>
       <c r="B67" s="18">
-        <v>59</v>
+        <v>453</v>
       </c>
       <c r="C67" s="18">
         <v>186</v>
       </c>
       <c r="D67" s="18">
         <v>329</v>
-      </c>
-      <c r="E67" s="18">
-        <v>453</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -17744,10 +16643,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
-      <selection pane="bottomLeft" activeCell="B54" sqref="B54:B67"/>
+      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17759,19 +16658,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="33" customHeight="1">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="129" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="134"/>
+      <c r="B1" s="129"/>
     </row>
     <row r="2" spans="1:6" ht="39" customHeight="1">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
     </row>
     <row r="3" spans="1:6" ht="15.75">
       <c r="A3" s="8"/>
@@ -17800,8 +16699,8 @@
       <c r="A5" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="30">
-        <v>4380</v>
+      <c r="B5" s="31">
+        <v>24390</v>
       </c>
       <c r="C5" s="31">
         <v>10947</v>
@@ -17818,7 +16717,7 @@
       <c r="A6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="14"/>
       <c r="D6" s="20"/>
       <c r="E6" s="21"/>
@@ -17827,8 +16726,8 @@
       <c r="A7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="14">
-        <v>92</v>
+      <c r="B7" s="21">
+        <v>432</v>
       </c>
       <c r="C7" s="14">
         <v>198</v>
@@ -17844,8 +16743,8 @@
       <c r="A8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="14">
-        <v>2</v>
+      <c r="B8" s="21">
+        <v>47</v>
       </c>
       <c r="C8" s="14">
         <v>18</v>
@@ -17861,8 +16760,8 @@
       <c r="A9" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="14">
-        <v>7</v>
+      <c r="B9" s="21">
+        <v>52</v>
       </c>
       <c r="C9" s="14">
         <v>22</v>
@@ -17878,8 +16777,8 @@
       <c r="A10" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="14">
-        <v>181</v>
+      <c r="B10" s="21">
+        <v>876</v>
       </c>
       <c r="C10" s="14">
         <v>403</v>
@@ -17895,8 +16794,8 @@
       <c r="A11" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="14">
-        <v>1</v>
+      <c r="B11" s="21">
+        <v>24</v>
       </c>
       <c r="C11" s="14">
         <v>7</v>
@@ -17912,8 +16811,8 @@
       <c r="A12" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="14">
-        <v>131</v>
+      <c r="B12" s="21">
+        <v>584</v>
       </c>
       <c r="C12" s="14">
         <v>284</v>
@@ -17929,8 +16828,8 @@
       <c r="A13" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="14">
-        <v>20</v>
+      <c r="B13" s="21">
+        <v>152</v>
       </c>
       <c r="C13" s="14">
         <v>66</v>
@@ -17946,8 +16845,8 @@
       <c r="A14" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="14">
-        <v>5</v>
+      <c r="B14" s="21">
+        <v>36</v>
       </c>
       <c r="C14" s="14">
         <v>16</v>
@@ -17963,8 +16862,8 @@
       <c r="A15" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="14">
-        <v>4</v>
+      <c r="B15" s="21">
+        <v>27</v>
       </c>
       <c r="C15" s="14">
         <v>13</v>
@@ -17980,8 +16879,8 @@
       <c r="A16" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="14">
-        <v>3</v>
+      <c r="B16" s="21">
+        <v>35</v>
       </c>
       <c r="C16" s="14">
         <v>14</v>
@@ -17997,8 +16896,8 @@
       <c r="A17" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="14">
-        <v>3</v>
+      <c r="B17" s="21">
+        <v>21</v>
       </c>
       <c r="C17" s="14">
         <v>9</v>
@@ -18014,8 +16913,8 @@
       <c r="A18" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="14">
-        <v>7</v>
+      <c r="B18" s="21">
+        <v>43</v>
       </c>
       <c r="C18" s="14">
         <v>19</v>
@@ -18031,8 +16930,8 @@
       <c r="A19" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="14">
-        <v>53</v>
+      <c r="B19" s="21">
+        <v>580</v>
       </c>
       <c r="C19" s="14">
         <v>238</v>
@@ -18048,8 +16947,8 @@
       <c r="A20" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="14">
-        <v>4</v>
+      <c r="B20" s="21">
+        <v>27</v>
       </c>
       <c r="C20" s="14">
         <v>11</v>
@@ -18065,8 +16964,8 @@
       <c r="A21" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="14">
-        <v>15</v>
+      <c r="B21" s="21">
+        <v>79</v>
       </c>
       <c r="C21" s="14">
         <v>34</v>
@@ -18082,8 +16981,8 @@
       <c r="A22" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="14">
-        <v>3</v>
+      <c r="B22" s="21">
+        <v>19</v>
       </c>
       <c r="C22" s="14">
         <v>8</v>
@@ -18099,8 +16998,8 @@
       <c r="A23" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="14">
-        <v>1</v>
+      <c r="B23" s="21">
+        <v>10</v>
       </c>
       <c r="C23" s="14">
         <v>3</v>
@@ -18116,8 +17015,8 @@
       <c r="A24" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="14">
-        <v>23</v>
+      <c r="B24" s="21">
+        <v>182</v>
       </c>
       <c r="C24" s="14">
         <v>70</v>
@@ -18133,8 +17032,8 @@
       <c r="A25" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="14">
-        <v>2</v>
+      <c r="B25" s="21">
+        <v>71</v>
       </c>
       <c r="C25" s="14">
         <v>28</v>
@@ -18150,8 +17049,8 @@
       <c r="A26" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="14">
-        <v>2</v>
+      <c r="B26" s="21">
+        <v>12</v>
       </c>
       <c r="C26" s="14">
         <v>5</v>
@@ -18167,8 +17066,8 @@
       <c r="A27" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="14">
-        <v>4</v>
+      <c r="B27" s="21">
+        <v>80</v>
       </c>
       <c r="C27" s="14">
         <v>18</v>
@@ -18184,8 +17083,8 @@
       <c r="A28" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="14">
-        <v>8</v>
+      <c r="B28" s="21">
+        <v>110</v>
       </c>
       <c r="C28" s="14">
         <v>35</v>
@@ -18201,8 +17100,8 @@
       <c r="A29" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="14">
-        <v>26</v>
+      <c r="B29" s="21">
+        <v>189</v>
       </c>
       <c r="C29" s="14">
         <v>78</v>
@@ -18218,8 +17117,8 @@
       <c r="A30" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="14">
-        <v>657</v>
+      <c r="B30" s="21">
+        <v>3485</v>
       </c>
       <c r="C30" s="14">
         <v>1536</v>
@@ -18235,8 +17134,8 @@
       <c r="A31" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="14">
-        <v>3</v>
+      <c r="B31" s="21">
+        <v>51</v>
       </c>
       <c r="C31" s="14">
         <v>21</v>
@@ -18252,8 +17151,8 @@
       <c r="A32" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B32" s="14">
-        <v>83</v>
+      <c r="B32" s="21">
+        <v>421</v>
       </c>
       <c r="C32" s="14">
         <v>195</v>
@@ -18269,8 +17168,8 @@
       <c r="A33" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="14">
-        <v>183</v>
+      <c r="B33" s="21">
+        <v>1478</v>
       </c>
       <c r="C33" s="14">
         <v>552</v>
@@ -18286,8 +17185,8 @@
       <c r="A34" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="14">
-        <v>1</v>
+      <c r="B34" s="21">
+        <v>12</v>
       </c>
       <c r="C34" s="14">
         <v>5</v>
@@ -18303,8 +17202,8 @@
       <c r="A35" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="14">
-        <v>5</v>
+      <c r="B35" s="21">
+        <v>29</v>
       </c>
       <c r="C35" s="14">
         <v>14</v>
@@ -18320,8 +17219,8 @@
       <c r="A36" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="14">
-        <v>57</v>
+      <c r="B36" s="21">
+        <v>261</v>
       </c>
       <c r="C36" s="14">
         <v>123</v>
@@ -18337,8 +17236,8 @@
       <c r="A37" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B37" s="14">
-        <v>52</v>
+      <c r="B37" s="21">
+        <v>226</v>
       </c>
       <c r="C37" s="14">
         <v>113</v>
@@ -18354,8 +17253,8 @@
       <c r="A38" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B38" s="14">
-        <v>1</v>
+      <c r="B38" s="21">
+        <v>26</v>
       </c>
       <c r="C38" s="14">
         <v>10</v>
@@ -18371,8 +17270,8 @@
       <c r="A39" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B39" s="14">
-        <v>82</v>
+      <c r="B39" s="21">
+        <v>396</v>
       </c>
       <c r="C39" s="14">
         <v>179</v>
@@ -18388,8 +17287,8 @@
       <c r="A40" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B40" s="14">
-        <v>9</v>
+      <c r="B40" s="21">
+        <v>60</v>
       </c>
       <c r="C40" s="14">
         <v>27</v>
@@ -18405,8 +17304,8 @@
       <c r="A41" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B41" s="14">
-        <v>10</v>
+      <c r="B41" s="21">
+        <v>51</v>
       </c>
       <c r="C41" s="14">
         <v>24</v>
@@ -18422,8 +17321,8 @@
       <c r="A42" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B42" s="14">
-        <v>189</v>
+      <c r="B42" s="21">
+        <v>714</v>
       </c>
       <c r="C42" s="14">
         <v>381</v>
@@ -18439,8 +17338,8 @@
       <c r="A43" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B43" s="14">
-        <v>1</v>
+      <c r="B43" s="21">
+        <v>16</v>
       </c>
       <c r="C43" s="14">
         <v>6</v>
@@ -18456,8 +17355,8 @@
       <c r="A44" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B44" s="14">
-        <v>23</v>
+      <c r="B44" s="21">
+        <v>254</v>
       </c>
       <c r="C44" s="14">
         <v>97</v>
@@ -18473,8 +17372,8 @@
       <c r="A45" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B45" s="14">
-        <v>107</v>
+      <c r="B45" s="21">
+        <v>519</v>
       </c>
       <c r="C45" s="14">
         <v>246</v>
@@ -18490,8 +17389,8 @@
       <c r="A46" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B46" s="14">
-        <v>2</v>
+      <c r="B46" s="21">
+        <v>17</v>
       </c>
       <c r="C46" s="14">
         <v>7</v>
@@ -18507,8 +17406,8 @@
       <c r="A47" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B47" s="14">
-        <v>11</v>
+      <c r="B47" s="21">
+        <v>55</v>
       </c>
       <c r="C47" s="14">
         <v>27</v>
@@ -18524,8 +17423,8 @@
       <c r="A48" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B48" s="14">
-        <v>3</v>
+      <c r="B48" s="21">
+        <v>22</v>
       </c>
       <c r="C48" s="14">
         <v>10</v>
@@ -18541,8 +17440,8 @@
       <c r="A49" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B49" s="14">
-        <v>2</v>
+      <c r="B49" s="21">
+        <v>9</v>
       </c>
       <c r="C49" s="14">
         <v>4</v>
@@ -18558,8 +17457,8 @@
       <c r="A50" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B50" s="14">
-        <v>19</v>
+      <c r="B50" s="21">
+        <v>178</v>
       </c>
       <c r="C50" s="14">
         <v>76</v>
@@ -18575,8 +17474,8 @@
       <c r="A51" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B51" s="14">
-        <v>20</v>
+      <c r="B51" s="21">
+        <v>282</v>
       </c>
       <c r="C51" s="14">
         <v>125</v>
@@ -18592,8 +17491,8 @@
       <c r="A52" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B52" s="14">
-        <v>87</v>
+      <c r="B52" s="21">
+        <v>360</v>
       </c>
       <c r="C52" s="14">
         <v>199</v>
@@ -18609,8 +17508,8 @@
       <c r="A53" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B53" s="14">
-        <v>7</v>
+      <c r="B53" s="21">
+        <v>45</v>
       </c>
       <c r="C53" s="14">
         <v>21</v>
@@ -18626,8 +17525,8 @@
       <c r="A54" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B54" s="14">
-        <v>15</v>
+      <c r="B54" s="21">
+        <v>80</v>
       </c>
       <c r="C54" s="14">
         <v>34</v>
@@ -18643,8 +17542,8 @@
       <c r="A55" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B55" s="14">
-        <v>99</v>
+      <c r="B55" s="21">
+        <v>425</v>
       </c>
       <c r="C55" s="14">
         <v>262</v>
@@ -18660,8 +17559,8 @@
       <c r="A56" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B56" s="14">
-        <v>1578</v>
+      <c r="B56" s="21">
+        <v>8723</v>
       </c>
       <c r="C56" s="14">
         <v>3895</v>
@@ -18677,8 +17576,8 @@
       <c r="A57" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B57" s="14">
-        <v>234</v>
+      <c r="B57" s="21">
+        <v>1017</v>
       </c>
       <c r="C57" s="14">
         <v>504</v>
@@ -18694,8 +17593,8 @@
       <c r="A58" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B58" s="14">
-        <v>30</v>
+      <c r="B58" s="21">
+        <v>185</v>
       </c>
       <c r="C58" s="14">
         <v>90</v>
@@ -18711,8 +17610,8 @@
       <c r="A59" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B59" s="14">
-        <v>2</v>
+      <c r="B59" s="21">
+        <v>9</v>
       </c>
       <c r="C59" s="14">
         <v>4</v>
@@ -18728,8 +17627,8 @@
       <c r="A60" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B60" s="14">
-        <v>7</v>
+      <c r="B60" s="21">
+        <v>41</v>
       </c>
       <c r="C60" s="14">
         <v>19</v>
@@ -18745,8 +17644,8 @@
       <c r="A61" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B61" s="14">
-        <v>6</v>
+      <c r="B61" s="21">
+        <v>49</v>
       </c>
       <c r="C61" s="14">
         <v>20</v>
@@ -18762,8 +17661,8 @@
       <c r="A62" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B62" s="14">
-        <v>6</v>
+      <c r="B62" s="21">
+        <v>34</v>
       </c>
       <c r="C62" s="14">
         <v>16</v>
@@ -18779,8 +17678,8 @@
       <c r="A63" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B63" s="14">
-        <v>83</v>
+      <c r="B63" s="21">
+        <v>415</v>
       </c>
       <c r="C63" s="14">
         <v>186</v>
@@ -18796,8 +17695,8 @@
       <c r="A64" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B64" s="14">
-        <v>27</v>
+      <c r="B64" s="21">
+        <v>134</v>
       </c>
       <c r="C64" s="14">
         <v>60</v>
@@ -18813,8 +17712,8 @@
       <c r="A65" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B65" s="14">
-        <v>1</v>
+      <c r="B65" s="21">
+        <v>11</v>
       </c>
       <c r="C65" s="14">
         <v>4</v>
@@ -18830,8 +17729,8 @@
       <c r="A66" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B66" s="14">
-        <v>13</v>
+      <c r="B66" s="21">
+        <v>102</v>
       </c>
       <c r="C66" s="14">
         <v>41</v>
@@ -18847,8 +17746,8 @@
       <c r="A67" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="B67" s="18">
-        <v>68</v>
+      <c r="B67" s="23">
+        <v>511</v>
       </c>
       <c r="C67" s="18">
         <v>217</v>
@@ -18877,12 +17776,17 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18917,19 +17821,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="129" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="134"/>
+      <c r="B1" s="129"/>
     </row>
     <row r="2" spans="1:5" ht="39" customHeight="1">
-      <c r="A2" s="136" t="s">
+      <c r="A2" s="131" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
     </row>
     <row r="3" spans="1:5" ht="15.75">
       <c r="A3" s="24"/>
@@ -20050,7 +18954,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="30">
+    <row r="70" spans="1:9">
       <c r="A70" s="35" t="s">
         <v>85</v>
       </c>
@@ -20115,12 +19019,12 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20152,19 +19056,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="129" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="134"/>
+      <c r="B1" s="129"/>
     </row>
     <row r="2" spans="1:5" ht="39" customHeight="1">
-      <c r="A2" s="136" t="s">
+      <c r="A2" s="131" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
     </row>
     <row r="3" spans="1:5" ht="15.75">
       <c r="A3" s="24"/>
@@ -21376,19 +20280,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="129" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="134"/>
+      <c r="B1" s="129"/>
     </row>
     <row r="2" spans="1:5" ht="39" customHeight="1">
-      <c r="A2" s="136" t="s">
+      <c r="A2" s="131" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
     </row>
     <row r="3" spans="1:5" ht="15.75">
       <c r="A3" s="24"/>
@@ -22561,13 +21465,13 @@
       </c>
     </row>
     <row r="73" spans="1:5" ht="38.25" customHeight="1">
-      <c r="A73" s="137" t="s">
+      <c r="A73" s="132" t="s">
         <v>99</v>
       </c>
-      <c r="B73" s="137"/>
-      <c r="C73" s="137"/>
-      <c r="D73" s="137"/>
-      <c r="E73" s="137"/>
+      <c r="B73" s="132"/>
+      <c r="C73" s="132"/>
+      <c r="D73" s="132"/>
+      <c r="E73" s="132"/>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="46"/>
@@ -22613,19 +21517,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="129" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="134"/>
+      <c r="B1" s="129"/>
     </row>
     <row r="2" spans="1:5" ht="39" customHeight="1">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
     </row>
     <row r="3" spans="1:5" ht="15.75">
       <c r="A3" s="86"/>
